--- a/native_garden.xlsx
+++ b/native_garden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisedgemon/repos/planting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81AE2F-0FA7-9F46-98BD-38962F485C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981F714-DC2F-554D-B444-96C50B1AA1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" activeTab="1" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="532">
   <si>
     <t>Southern blackhaw</t>
   </si>
@@ -2222,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD367B52-4A65-FE4D-B97C-D9C08B69CC5F}">
-  <dimension ref="A1:AA140"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2237,19 +2237,21 @@
     <col min="5" max="5" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="4"/>
-    <col min="10" max="10" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3" style="4" customWidth="1"/>
-    <col min="18" max="21" width="4.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3" style="4" customWidth="1"/>
+    <col min="19" max="22" width="4.1640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="12" customFormat="1" thickBot="1">
+    <row r="1" spans="1:25" s="12" customFormat="1" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>420</v>
       </c>
@@ -2272,52 +2274,55 @@
         <v>397</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
@@ -2334,27 +2339,24 @@
         <v>143</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(N2:V2)</f>
+        <f t="shared" ref="G2:G33" si="0">SUM(O2:W2)</f>
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P2" s="4" t="str">
-        <f>IF(ISBLANK(X2), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
+      <c r="Q2" s="4" t="str">
+        <f t="shared" ref="Q2:Q33" si="1">IF(ISBLANK(Y2), "", 1)</f>
+        <v/>
       </c>
       <c r="R2" s="4">
         <v>1</v>
@@ -2365,11 +2367,14 @@
       <c r="T2" s="4">
         <v>1</v>
       </c>
-      <c r="V2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>134</v>
       </c>
@@ -2383,42 +2388,42 @@
         <v>138</v>
       </c>
       <c r="G3" s="4">
-        <f>SUM(N3:V3)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="M3" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P3" s="4">
-        <f>IF(ISBLANK(X3), "", 1)</f>
-        <v>1</v>
-      </c>
       <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1</v>
-      </c>
-      <c r="U3" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
         <v>1</v>
       </c>
       <c r="V3" s="4">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>
@@ -2435,39 +2440,39 @@
         <v>136</v>
       </c>
       <c r="G4" s="4">
-        <f>SUM(N4:V4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f>IF(ISBLANK(X4), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R4" s="4">
         <v>1</v>
       </c>
       <c r="V4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="4" t="s">
         <v>134</v>
       </c>
@@ -2481,39 +2486,39 @@
         <v>141</v>
       </c>
       <c r="G5" s="4">
-        <f>SUM(N5:V5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="M5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="4" t="str">
-        <f>IF(ISBLANK(X5), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q5" s="4">
-        <v>1</v>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="T5" s="4">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="4" t="s">
         <v>134</v>
       </c>
@@ -2530,36 +2535,36 @@
         <v>132</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(N6:V6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="M6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="4" t="str">
-        <f>IF(ISBLANK(X6), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S6" s="4">
         <v>1</v>
       </c>
       <c r="V6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
@@ -2573,32 +2578,29 @@
         <v>41</v>
       </c>
       <c r="G7" s="4">
-        <f>SUM(N7:V7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="L7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="M7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
       <c r="O7" s="4">
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f>IF(ISBLANK(X7), "", 1)</f>
         <v>1</v>
       </c>
       <c r="Q7" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R7" s="4">
@@ -2607,14 +2609,17 @@
       <c r="S7" s="4">
         <v>1</v>
       </c>
-      <c r="V7" s="4">
-        <v>1</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="4" t="s">
         <v>202</v>
       </c>
@@ -2628,33 +2633,30 @@
         <v>163</v>
       </c>
       <c r="G8" s="4">
-        <f>SUM(N8:V8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="M8" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
       <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="4" t="str">
-        <f>IF(ISBLANK(X8), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T8" s="4">
-        <v>1</v>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="U8" s="4">
         <v>1</v>
@@ -2662,8 +2664,11 @@
       <c r="V8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="4" t="s">
         <v>202</v>
       </c>
@@ -2677,39 +2682,39 @@
         <v>182</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(N9:V9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="L9" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="M9" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="str">
-        <f>IF(ISBLANK(X9), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="4" t="s">
         <v>202</v>
       </c>
@@ -2723,30 +2728,27 @@
         <v>175</v>
       </c>
       <c r="G10" s="4">
-        <f>SUM(N10:V10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="L10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="M10" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="str">
-        <f>IF(ISBLANK(X10), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="4">
-        <v>1</v>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R10" s="4">
         <v>1</v>
@@ -2754,8 +2756,11 @@
       <c r="S10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
         <v>202</v>
       </c>
@@ -2772,35 +2777,32 @@
         <v>161</v>
       </c>
       <c r="G11" s="4">
-        <f>SUM(N11:V11)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="M11" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>-1</v>
       </c>
-      <c r="P11" s="4" t="str">
-        <f>IF(ISBLANK(X11), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q11" s="4">
-        <v>1</v>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R11" s="4">
         <v>1</v>
       </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="U11" s="4">
@@ -2809,8 +2811,11 @@
       <c r="V11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="W11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="4" t="s">
         <v>202</v>
       </c>
@@ -2827,39 +2832,39 @@
         <v>154</v>
       </c>
       <c r="G12" s="4">
-        <f>SUM(N12:V12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="K12" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="L12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="M12" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
       <c r="O12" s="4">
         <v>1</v>
       </c>
-      <c r="P12" s="4" t="str">
-        <f>IF(ISBLANK(X12), "", 1)</f>
-        <v/>
-      </c>
-      <c r="U12" s="4">
-        <v>1</v>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="V12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="4" t="s">
         <v>202</v>
       </c>
@@ -2873,39 +2878,39 @@
         <v>151</v>
       </c>
       <c r="G13" s="4">
-        <f>SUM(N13:V13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="L13" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="M13" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="str">
-        <f>IF(ISBLANK(X13), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1</v>
-      </c>
-      <c r="V13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="4" t="s">
         <v>202</v>
       </c>
@@ -2922,39 +2927,39 @@
         <v>224</v>
       </c>
       <c r="G14" s="4">
-        <f>SUM(N14:V14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="M14" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
-        <f>IF(ISBLANK(X14), "", 1)</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-      <c r="U14" s="4">
-        <v>1</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="4" t="s">
         <v>202</v>
       </c>
@@ -2968,30 +2973,27 @@
         <v>172</v>
       </c>
       <c r="G15" s="4">
-        <f>SUM(N15:V15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="M15" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>-1</v>
       </c>
-      <c r="P15" s="4" t="str">
-        <f>IF(ISBLANK(X15), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
+      <c r="Q15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R15" s="4">
         <v>1</v>
@@ -2999,11 +3001,14 @@
       <c r="S15" s="4">
         <v>1</v>
       </c>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="4" t="s">
         <v>202</v>
       </c>
@@ -3020,36 +3025,36 @@
         <v>280</v>
       </c>
       <c r="G16" s="4">
-        <f>SUM(N16:V16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="M16" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="str">
-        <f>IF(ISBLANK(X16), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="4" t="s">
         <v>202</v>
       </c>
@@ -3066,36 +3071,36 @@
         <v>321</v>
       </c>
       <c r="G17" s="4">
-        <f>SUM(N17:V17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="K17" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="L17" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="M17" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="str">
-        <f>IF(ISBLANK(X17), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T17" s="4">
-        <v>1</v>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="U17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="4" t="s">
         <v>202</v>
       </c>
@@ -3112,27 +3117,24 @@
         <v>436</v>
       </c>
       <c r="G18" s="4">
-        <f>SUM(N18:V18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="K18" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="L18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="M18" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="4" t="str">
-        <f>IF(ISBLANK(X18), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q18" s="4">
-        <v>1</v>
+      <c r="Q18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R18" s="4">
         <v>1</v>
@@ -3140,8 +3142,11 @@
       <c r="S18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="4" t="s">
         <v>202</v>
       </c>
@@ -3158,36 +3163,36 @@
         <v>401</v>
       </c>
       <c r="G19" s="4">
-        <f>SUM(N19:V19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="L19" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="M19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="4" t="str">
-        <f>IF(ISBLANK(X19), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Q19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="4" t="s">
         <v>202</v>
       </c>
@@ -3201,36 +3206,36 @@
         <v>180</v>
       </c>
       <c r="G20" s="4">
-        <f>SUM(N20:V20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="K20" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="L20" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="M20" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4" t="str">
-        <f>IF(ISBLANK(X20), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -3244,35 +3249,32 @@
         <v>51</v>
       </c>
       <c r="G21" s="4">
-        <f>SUM(N21:V21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="M21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
       <c r="O21" s="4">
         <v>1</v>
       </c>
-      <c r="P21" s="4" t="str">
-        <f>IF(ISBLANK(X21), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S21" s="4">
         <v>1</v>
       </c>
       <c r="U21" s="4">
@@ -3281,8 +3283,11 @@
       <c r="V21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -3299,35 +3304,32 @@
         <v>88</v>
       </c>
       <c r="G22" s="4">
-        <f>SUM(N22:V22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="L22" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="M22" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
       <c r="O22" s="4">
         <v>1</v>
       </c>
-      <c r="P22" s="4" t="str">
-        <f>IF(ISBLANK(X22), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="U22" s="4">
@@ -3336,8 +3338,11 @@
       <c r="V22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="W22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
@@ -3351,39 +3356,39 @@
         <v>46</v>
       </c>
       <c r="G23" s="4">
-        <f>SUM(N23:V23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="K23" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="L23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="M23" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O23" s="4">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4" t="str">
-        <f>IF(ISBLANK(X23), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R23" s="4">
-        <v>1</v>
-      </c>
-      <c r="T23" s="4">
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S23" s="4">
         <v>1</v>
       </c>
       <c r="U23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
@@ -3397,27 +3402,24 @@
         <v>369</v>
       </c>
       <c r="G24" s="4">
-        <f>SUM(N24:V24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="K24" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="L24" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="M24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="4" t="str">
-        <f>IF(ISBLANK(X24), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
+      <c r="Q24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R24" s="4">
         <v>1</v>
@@ -3428,8 +3430,11 @@
       <c r="T24" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -3446,39 +3451,39 @@
         <v>531</v>
       </c>
       <c r="G25" s="4">
-        <f>SUM(N25:V25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="K25" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="L25" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="M25" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="str">
-        <f>IF(ISBLANK(X25), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <v>1</v>
-      </c>
-      <c r="V25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -3495,36 +3500,36 @@
         <v>530</v>
       </c>
       <c r="G26" s="4">
-        <f>SUM(N26:V26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="K26" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="L26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="M26" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="P26" s="4" t="str">
-        <f>IF(ISBLANK(X26), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="T26" s="4">
+      <c r="Q26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S26" s="4">
         <v>1</v>
       </c>
       <c r="U26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="V26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -3541,27 +3546,24 @@
         <v>447</v>
       </c>
       <c r="G27" s="4">
-        <f>SUM(N27:V27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="K27" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="L27" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="M27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="4" t="str">
-        <f>IF(ISBLANK(X27), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T27" s="4">
-        <v>1</v>
+      <c r="Q27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="U27" s="4">
         <v>1</v>
@@ -3569,8 +3571,11 @@
       <c r="V27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="W27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>529</v>
       </c>
       <c r="G28" s="4">
-        <f>SUM(N28:V28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -3596,30 +3601,30 @@
       <c r="I28" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="K28" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="M28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
       <c r="P28" s="4">
-        <f>IF(ISBLANK(X28), "", 1)</f>
-        <v>1</v>
-      </c>
-      <c r="T28" s="4">
-        <v>1</v>
-      </c>
-      <c r="X28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:25">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -3636,36 +3641,36 @@
         <v>463</v>
       </c>
       <c r="G29" s="4">
-        <f>SUM(N29:V29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="L29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="M29" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O29" s="4">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="str">
-        <f>IF(ISBLANK(X29), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T29" s="4">
-        <v>1</v>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="U29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
@@ -3682,36 +3687,36 @@
         <v>466</v>
       </c>
       <c r="G30" s="4">
-        <f>SUM(N30:V30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="K30" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="L30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="M30" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O30" s="4">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4" t="str">
-        <f>IF(ISBLANK(X30), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S30" s="4">
-        <v>1</v>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="T30" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -3725,7 +3730,7 @@
         <v>75</v>
       </c>
       <c r="G31" s="4">
-        <f>SUM(N31:V31)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -3734,27 +3739,24 @@
       <c r="I31" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="K31" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="L31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="M31" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N31" s="4">
-        <v>1</v>
-      </c>
       <c r="O31" s="4">
         <v>1</v>
       </c>
-      <c r="P31" s="4" t="str">
-        <f>IF(ISBLANK(X31), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R31" s="4">
-        <v>1</v>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="S31" s="4">
         <v>1</v>
@@ -3768,8 +3770,11 @@
       <c r="V31" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="W31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -3783,48 +3788,48 @@
         <v>94</v>
       </c>
       <c r="G32" s="4">
-        <f>SUM(N32:V32)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="K32" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="L32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="M32" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
       <c r="O32" s="4">
         <v>1</v>
       </c>
       <c r="P32" s="4">
-        <f>IF(ISBLANK(X32), "", 1)</f>
         <v>1</v>
       </c>
       <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="U32" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
         <v>1</v>
       </c>
       <c r="V32" s="4">
         <v>1</v>
       </c>
-      <c r="X32" t="s">
+      <c r="W32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -3841,7 +3846,7 @@
         <v>391</v>
       </c>
       <c r="G33" s="4">
-        <f>SUM(N33:V33)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -3850,39 +3855,39 @@
       <c r="I33" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="K33" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="L33" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="M33" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
       <c r="O33" s="4">
         <v>1</v>
       </c>
-      <c r="P33" s="4" t="str">
-        <f>IF(ISBLANK(X33), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q33" s="4">
-        <v>1</v>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R33" s="4">
         <v>1</v>
       </c>
-      <c r="U33" s="4">
+      <c r="S33" s="4">
         <v>1</v>
       </c>
       <c r="V33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -3896,30 +3901,27 @@
         <v>71</v>
       </c>
       <c r="G34" s="4">
-        <f>SUM(N34:V34)</f>
+        <f t="shared" ref="G34:G65" si="2">SUM(O34:W34)</f>
         <v>6</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="K34" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="L34" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="M34" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4" t="str">
-        <f>IF(ISBLANK(X34), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R34" s="4">
-        <v>1</v>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="str">
+        <f t="shared" ref="Q34:Q65" si="3">IF(ISBLANK(Y34), "", 1)</f>
+        <v/>
       </c>
       <c r="S34" s="4">
         <v>1</v>
@@ -3933,8 +3935,11 @@
       <c r="V34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -3948,27 +3953,24 @@
         <v>38</v>
       </c>
       <c r="G35" s="4">
-        <f>SUM(N35:V35)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="K35" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="L35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="M35" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P35" s="4" t="str">
-        <f>IF(ISBLANK(X35), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q35" s="4">
-        <v>1</v>
+      <c r="Q35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="R35" s="4">
         <v>1</v>
@@ -3985,8 +3987,11 @@
       <c r="V35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
@@ -4000,7 +4005,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="4">
-        <f>SUM(N36:V36)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -4009,33 +4014,33 @@
       <c r="I36" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="K36" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="L36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="M36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="str">
-        <f>IF(ISBLANK(X36), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R36" s="4">
-        <v>1</v>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="S36" s="4">
         <v>1</v>
       </c>
-      <c r="U36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="T36" s="4">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="4" t="s">
         <v>27</v>
       </c>
@@ -4052,39 +4057,39 @@
         <v>68</v>
       </c>
       <c r="G37" s="4">
-        <f>SUM(N37:V37)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="K37" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="L37" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="M37" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P37" s="4" t="str">
-        <f>IF(ISBLANK(X37), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q37" s="4">
-        <v>1</v>
+      <c r="Q37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="R37" s="4">
         <v>1</v>
       </c>
-      <c r="U37" s="4">
+      <c r="S37" s="4">
         <v>1</v>
       </c>
       <c r="V37" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
@@ -4101,27 +4106,24 @@
         <v>43</v>
       </c>
       <c r="G38" s="4">
-        <f>SUM(N38:V38)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="K38" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="L38" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="M38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P38" s="4" t="str">
-        <f>IF(ISBLANK(X38), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S38" s="4">
-        <v>1</v>
+      <c r="Q38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="T38" s="4">
         <v>1</v>
@@ -4129,8 +4131,11 @@
       <c r="U38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -4144,36 +4149,36 @@
         <v>473</v>
       </c>
       <c r="G39" s="4">
-        <f>SUM(N39:V39)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="K39" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="L39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="M39" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P39" s="4" t="str">
-        <f>IF(ISBLANK(X39), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-      <c r="T39" s="4">
+      <c r="Q39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S39" s="4">
         <v>1</v>
       </c>
       <c r="U39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="4" t="s">
         <v>27</v>
       </c>
@@ -4190,36 +4195,36 @@
         <v>419</v>
       </c>
       <c r="G40" s="4">
-        <f>SUM(N40:V40)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="K40" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="L40" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="M40" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4" t="str">
-        <f>IF(ISBLANK(X40), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="4" t="s">
         <v>27</v>
       </c>
@@ -4236,36 +4241,36 @@
         <v>36</v>
       </c>
       <c r="G41" s="4">
-        <f>SUM(N41:V41)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="L41" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="M41" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O41" s="4">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4" t="str">
-        <f>IF(ISBLANK(X41), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="S41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="4">
-        <f>SUM(N42:V42)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -4291,30 +4296,30 @@
       <c r="I42" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="K42" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="L42" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L42" s="23" t="s">
+      <c r="M42" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4" t="str">
-        <f>IF(ISBLANK(X42), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T42" s="4">
-        <v>1</v>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="U42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>70</v>
       </c>
       <c r="G43" s="4">
-        <f>SUM(N43:V43)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -4340,30 +4345,30 @@
       <c r="I43" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="K43" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="L43" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="M43" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P43" s="4" t="str">
-        <f>IF(ISBLANK(X43), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R43" s="4">
-        <v>1</v>
-      </c>
-      <c r="T43" s="4">
+      <c r="Q43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S43" s="4">
         <v>1</v>
       </c>
       <c r="U43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="V43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="4" t="s">
         <v>27</v>
       </c>
@@ -4380,36 +4385,36 @@
         <v>189</v>
       </c>
       <c r="G44" s="4">
-        <f>SUM(N44:V44)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="K44" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="L44" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L44" s="23" t="s">
+      <c r="M44" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="4">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4" t="str">
-        <f>IF(ISBLANK(X44), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-      <c r="S44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="T44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
@@ -4423,32 +4428,29 @@
         <v>62</v>
       </c>
       <c r="G45" s="4">
-        <f>SUM(N45:V45)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="K45" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="L45" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L45" s="23" t="s">
+      <c r="M45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="P45" s="4" t="str">
-        <f>IF(ISBLANK(X45), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R45" s="4">
-        <v>1</v>
-      </c>
-      <c r="T45" s="4">
+      <c r="Q45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S45" s="4">
         <v>1</v>
       </c>
       <c r="U45" s="4">
@@ -4457,8 +4459,11 @@
       <c r="V45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="4" t="s">
         <v>61</v>
       </c>
@@ -4475,31 +4480,28 @@
         <v>80</v>
       </c>
       <c r="G46" s="4">
-        <f>SUM(N46:V46)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="K46" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="L46" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L46" s="23" t="s">
+      <c r="M46" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="8"/>
-      <c r="P46" s="4" t="str">
-        <f>IF(ISBLANK(X46), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R46" s="4">
-        <v>1</v>
-      </c>
-      <c r="T46" s="4">
+      <c r="N46" s="4"/>
+      <c r="O46" s="8"/>
+      <c r="Q46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S46" s="4">
         <v>1</v>
       </c>
       <c r="U46" s="4">
@@ -4508,8 +4510,11 @@
       <c r="V46" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -4526,39 +4531,39 @@
         <v>85</v>
       </c>
       <c r="G47" s="4">
-        <f>SUM(N47:V47)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="K47" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="L47" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="M47" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
       <c r="O47" s="4">
         <v>1</v>
       </c>
-      <c r="P47" s="4" t="str">
-        <f>IF(ISBLANK(X47), "", 1)</f>
-        <v/>
-      </c>
-      <c r="U47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
@@ -4575,39 +4580,39 @@
         <v>525</v>
       </c>
       <c r="G48" s="4">
-        <f>SUM(N48:V48)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="L48" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L48" s="23" t="s">
+      <c r="M48" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="N48" s="4">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4" t="str">
-        <f>IF(ISBLANK(X48), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R48" s="4">
-        <v>1</v>
-      </c>
-      <c r="U48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+      <c r="V48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -4621,42 +4626,42 @@
         <v>115</v>
       </c>
       <c r="G49" s="4">
-        <f>SUM(N49:V49)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="L49" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="M49" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>-1</v>
       </c>
-      <c r="P49" s="4" t="str">
-        <f>IF(ISBLANK(X49), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R49" s="4">
-        <v>1</v>
+      <c r="Q49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="S49" s="4">
         <v>1</v>
       </c>
-      <c r="U49" s="4">
+      <c r="T49" s="4">
         <v>1</v>
       </c>
       <c r="V49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="4" t="s">
         <v>61</v>
       </c>
@@ -4673,42 +4678,42 @@
         <v>522</v>
       </c>
       <c r="G50" s="4">
-        <f>SUM(N50:V50)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="K50" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="L50" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L50" s="23" t="s">
+      <c r="M50" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>528</v>
       </c>
-      <c r="O50" s="4">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4" t="str">
-        <f>IF(ISBLANK(X50), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R50" s="4">
-        <v>1</v>
-      </c>
-      <c r="V50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S50" s="4">
+        <v>1</v>
+      </c>
+      <c r="W50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
@@ -4722,33 +4727,33 @@
         <v>170</v>
       </c>
       <c r="G51" s="4">
-        <f>SUM(N51:V51)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="K51" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="L51" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="23" t="s">
+      <c r="M51" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P51" s="4" t="str">
-        <f>IF(ISBLANK(X51), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q51" s="4">
-        <v>1</v>
+      <c r="Q51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="R51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
@@ -4762,33 +4767,33 @@
         <v>187</v>
       </c>
       <c r="G52" s="4">
-        <f>SUM(N52:V52)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="K52" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="L52" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L52" s="23" t="s">
+      <c r="M52" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P52" s="4" t="str">
-        <f>IF(ISBLANK(X52), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q52" s="4">
-        <v>1</v>
-      </c>
-      <c r="T52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="Q52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="U52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="4" t="s">
         <v>196</v>
       </c>
@@ -4805,33 +4810,33 @@
         <v>446</v>
       </c>
       <c r="G53" s="4">
-        <f>SUM(N53:V53)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="K53" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="L53" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L53" s="23" t="s">
+      <c r="M53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O53" s="4">
-        <v>1</v>
-      </c>
-      <c r="P53" s="4" t="str">
-        <f>IF(ISBLANK(X53), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="4" t="s">
         <v>202</v>
       </c>
@@ -4848,27 +4853,27 @@
         <v>449</v>
       </c>
       <c r="G54" s="4">
-        <f>SUM(N54:V54)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="M54" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P54" s="4" t="str">
-        <f>IF(ISBLANK(X54), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q54" s="4">
-        <v>1</v>
-      </c>
-      <c r="S54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="Q54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="4" t="s">
         <v>202</v>
       </c>
@@ -4885,33 +4890,33 @@
         <v>315</v>
       </c>
       <c r="G55" s="4">
-        <f>SUM(N55:V55)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="K55" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K55" s="23" t="s">
+      <c r="L55" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L55" s="23" t="s">
+      <c r="M55" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P55" s="4" t="str">
-        <f>IF(ISBLANK(X55), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R55" s="4">
-        <v>1</v>
-      </c>
-      <c r="U55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="Q55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S55" s="4">
+        <v>1</v>
+      </c>
+      <c r="V55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="4" t="s">
         <v>202</v>
       </c>
@@ -4925,33 +4930,33 @@
         <v>247</v>
       </c>
       <c r="G56" s="4">
-        <f>SUM(N56:V56)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="K56" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K56" s="23" t="s">
+      <c r="L56" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="M56" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
       <c r="O56" s="4">
         <v>1</v>
       </c>
-      <c r="P56" s="4" t="str">
-        <f>IF(ISBLANK(X56), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="4" t="s">
         <v>202</v>
       </c>
@@ -4968,33 +4973,33 @@
         <v>412</v>
       </c>
       <c r="G57" s="4">
-        <f>SUM(N57:V57)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="K57" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="L57" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L57" s="23" t="s">
+      <c r="M57" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O57" s="4">
-        <v>1</v>
-      </c>
-      <c r="P57" s="4" t="str">
-        <f>IF(ISBLANK(X57), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="4" t="s">
         <v>202</v>
       </c>
@@ -5011,33 +5016,33 @@
         <v>285</v>
       </c>
       <c r="G58" s="4">
-        <f>SUM(N58:V58)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="K58" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="L58" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="M58" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58" s="4" t="str">
-        <f>IF(ISBLANK(X58), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="O58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="4" t="s">
         <v>202</v>
       </c>
@@ -5051,33 +5056,33 @@
         <v>155</v>
       </c>
       <c r="G59" s="4">
-        <f>SUM(N59:V59)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="K59" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="L59" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="23" t="s">
+      <c r="M59" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P59" s="4" t="str">
-        <f>IF(ISBLANK(X59), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q59" s="4">
-        <v>1</v>
-      </c>
-      <c r="V59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="Q59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R59" s="4">
+        <v>1</v>
+      </c>
+      <c r="W59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="4" t="s">
         <v>202</v>
       </c>
@@ -5091,33 +5096,33 @@
         <v>482</v>
       </c>
       <c r="G60" s="4">
-        <f>SUM(N60:V60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="K60" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="L60" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L60" s="23" t="s">
+      <c r="M60" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="N60" s="4">
-        <v>1</v>
-      </c>
-      <c r="P60" s="4" t="str">
-        <f>IF(ISBLANK(X60), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="O60" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="4" t="s">
         <v>202</v>
       </c>
@@ -5134,33 +5139,33 @@
         <v>445</v>
       </c>
       <c r="G61" s="4">
-        <f>SUM(N61:V61)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="23" t="s">
+      <c r="K61" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="L61" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="M61" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O61" s="4">
-        <v>1</v>
-      </c>
-      <c r="P61" s="4" t="str">
-        <f>IF(ISBLANK(X61), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="4" t="s">
         <v>202</v>
       </c>
@@ -5177,33 +5182,33 @@
         <v>469</v>
       </c>
       <c r="G62" s="4">
-        <f>SUM(N62:V62)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J62" s="23" t="s">
+      <c r="K62" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="L62" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L62" s="23" t="s">
+      <c r="M62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="4">
-        <v>1</v>
-      </c>
-      <c r="P62" s="4" t="str">
-        <f>IF(ISBLANK(X62), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="P62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="4" t="s">
         <v>202</v>
       </c>
@@ -5217,33 +5222,33 @@
         <v>471</v>
       </c>
       <c r="G63" s="4">
-        <f>SUM(N63:V63)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="K63" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="L63" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="M63" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="4">
-        <v>1</v>
-      </c>
-      <c r="P63" s="4" t="str">
-        <f>IF(ISBLANK(X63), "", 1)</f>
-        <v/>
-      </c>
-      <c r="T63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="4" t="s">
         <v>48</v>
       </c>
@@ -5260,30 +5265,30 @@
         <v>158</v>
       </c>
       <c r="G64" s="4">
-        <f>SUM(N64:V64)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="L64" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L64" s="23" t="s">
+      <c r="M64" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O64" s="4">
-        <v>1</v>
-      </c>
-      <c r="P64" s="4" t="str">
-        <f>IF(ISBLANK(X64), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
@@ -5300,33 +5305,33 @@
         <v>99</v>
       </c>
       <c r="G65" s="4">
-        <f>SUM(N65:V65)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J65" s="23" t="s">
+      <c r="K65" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="L65" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L65" s="23" t="s">
+      <c r="M65" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P65" s="4" t="str">
-        <f>IF(ISBLANK(X65), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R65" s="4">
-        <v>1</v>
-      </c>
-      <c r="V65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Q65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="4" t="s">
         <v>48</v>
       </c>
@@ -5343,33 +5348,33 @@
         <v>443</v>
       </c>
       <c r="G66" s="4">
-        <f>SUM(N66:V66)</f>
+        <f t="shared" ref="G66:G97" si="4">SUM(O66:W66)</f>
         <v>2</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J66" s="23" t="s">
+      <c r="K66" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K66" s="23" t="s">
+      <c r="L66" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L66" s="23" t="s">
+      <c r="M66" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="4">
-        <v>1</v>
-      </c>
-      <c r="P66" s="4" t="str">
-        <f>IF(ISBLANK(X66), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="str">
+        <f t="shared" ref="Q66:Q97" si="5">IF(ISBLANK(Y66), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="4" t="s">
         <v>405</v>
       </c>
@@ -5383,33 +5388,33 @@
         <v>118</v>
       </c>
       <c r="G67" s="4">
-        <f>SUM(N67:V67)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J67" s="23" t="s">
+      <c r="K67" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="L67" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="L67" s="23" t="s">
+      <c r="M67" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O67" s="4">
-        <v>1</v>
-      </c>
-      <c r="P67" s="4" t="str">
-        <f>IF(ISBLANK(X67), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="4" t="s">
         <v>127</v>
       </c>
@@ -5423,27 +5428,27 @@
         <v>400</v>
       </c>
       <c r="G68" s="4">
-        <f>SUM(N68:V68)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L68" s="23" t="s">
+      <c r="M68" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="O68" s="4">
-        <v>1</v>
-      </c>
       <c r="P68" s="4">
-        <f>IF(ISBLANK(X68), "", 1)</f>
-        <v>1</v>
-      </c>
-      <c r="X68" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y68" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:25">
       <c r="A69" s="4" t="s">
         <v>27</v>
       </c>
@@ -5460,33 +5465,33 @@
         <v>370</v>
       </c>
       <c r="G69" s="4">
-        <f>SUM(N69:V69)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J69" s="23" t="s">
+      <c r="K69" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="L69" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="23" t="s">
+      <c r="M69" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P69" s="4" t="str">
-        <f>IF(ISBLANK(X69), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q69" s="4">
-        <v>1</v>
-      </c>
-      <c r="S69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Q69" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R69" s="4">
+        <v>1</v>
+      </c>
+      <c r="T69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="4" t="s">
         <v>27</v>
       </c>
@@ -5500,33 +5505,33 @@
         <v>349</v>
       </c>
       <c r="G70" s="4">
-        <f>SUM(N70:V70)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="K70" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K70" s="23" t="s">
+      <c r="L70" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="M70" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P70" s="4" t="str">
-        <f>IF(ISBLANK(X70), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q70" s="4">
-        <v>1</v>
-      </c>
-      <c r="S70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Q70" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R70" s="4">
+        <v>1</v>
+      </c>
+      <c r="T70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="4" t="s">
         <v>27</v>
       </c>
@@ -5540,30 +5545,30 @@
         <v>72</v>
       </c>
       <c r="G71" s="4">
-        <f>SUM(N71:V71)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="L71" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L71" s="23" t="s">
+      <c r="M71" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="4" t="str">
-        <f>IF(ISBLANK(X71), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R71" s="4">
-        <v>1</v>
-      </c>
-      <c r="U71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Q71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S71" s="4">
+        <v>1</v>
+      </c>
+      <c r="V71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="4" t="s">
         <v>27</v>
       </c>
@@ -5580,33 +5585,33 @@
         <v>109</v>
       </c>
       <c r="G72" s="4">
-        <f>SUM(N72:V72)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="K72" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K72" s="23" t="s">
+      <c r="L72" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L72" s="23" t="s">
+      <c r="M72" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O72" s="4">
-        <v>1</v>
-      </c>
-      <c r="P72" s="4" t="str">
-        <f>IF(ISBLANK(X72), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="4" t="s">
         <v>61</v>
       </c>
@@ -5620,21 +5625,21 @@
         <v>365</v>
       </c>
       <c r="G73" s="4">
-        <f>SUM(N73:V73)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P73" s="4" t="str">
-        <f>IF(ISBLANK(X73), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q73" s="4">
-        <v>1</v>
-      </c>
-      <c r="S73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Q73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R73" s="4">
+        <v>1</v>
+      </c>
+      <c r="T73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="4" t="s">
         <v>61</v>
       </c>
@@ -5651,33 +5656,33 @@
         <v>222</v>
       </c>
       <c r="G74" s="4">
-        <f>SUM(N74:V74)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J74" s="23" t="s">
+      <c r="K74" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="L74" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="L74" s="23" t="s">
+      <c r="M74" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="P74" s="4" t="str">
-        <f>IF(ISBLANK(X74), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S74" s="4">
-        <v>1</v>
-      </c>
-      <c r="U74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Q74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="4" t="s">
         <v>134</v>
       </c>
@@ -5691,18 +5696,18 @@
         <v>359</v>
       </c>
       <c r="G75" s="4">
-        <f>SUM(N75:V75)</f>
-        <v>1</v>
-      </c>
-      <c r="P75" s="4" t="str">
-        <f>IF(ISBLANK(X75), "", 1)</f>
-        <v/>
-      </c>
-      <c r="U75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="4" t="s">
         <v>134</v>
       </c>
@@ -5716,18 +5721,18 @@
         <v>357</v>
       </c>
       <c r="G76" s="4">
-        <f>SUM(N76:V76)</f>
-        <v>1</v>
-      </c>
-      <c r="P76" s="4" t="str">
-        <f>IF(ISBLANK(X76), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="4" t="s">
         <v>134</v>
       </c>
@@ -5741,18 +5746,18 @@
         <v>355</v>
       </c>
       <c r="G77" s="4">
-        <f>SUM(N77:V77)</f>
-        <v>1</v>
-      </c>
-      <c r="P77" s="4" t="str">
-        <f>IF(ISBLANK(X77), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="4" t="s">
         <v>134</v>
       </c>
@@ -5766,18 +5771,18 @@
         <v>139</v>
       </c>
       <c r="G78" s="4">
-        <f>SUM(N78:V78)</f>
-        <v>1</v>
-      </c>
-      <c r="P78" s="4" t="str">
-        <f>IF(ISBLANK(X78), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="4" t="s">
         <v>202</v>
       </c>
@@ -5794,18 +5799,18 @@
         <v>240</v>
       </c>
       <c r="G79" s="4">
-        <f>SUM(N79:V79)</f>
-        <v>1</v>
-      </c>
-      <c r="P79" s="4" t="str">
-        <f>IF(ISBLANK(X79), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="4" t="s">
         <v>202</v>
       </c>
@@ -5822,18 +5827,18 @@
         <v>212</v>
       </c>
       <c r="G80" s="4">
-        <f>SUM(N80:V80)</f>
-        <v>1</v>
-      </c>
-      <c r="P80" s="4" t="str">
-        <f>IF(ISBLANK(X80), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="4" t="s">
         <v>202</v>
       </c>
@@ -5850,18 +5855,18 @@
         <v>259</v>
       </c>
       <c r="G81" s="4">
-        <f>SUM(N81:V81)</f>
-        <v>1</v>
-      </c>
-      <c r="P81" s="4" t="str">
-        <f>IF(ISBLANK(X81), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="4" t="s">
         <v>202</v>
       </c>
@@ -5875,18 +5880,18 @@
         <v>378</v>
       </c>
       <c r="G82" s="4">
-        <f>SUM(N82:V82)</f>
-        <v>1</v>
-      </c>
-      <c r="P82" s="4" t="str">
-        <f>IF(ISBLANK(X82), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="4" t="s">
         <v>202</v>
       </c>
@@ -5900,18 +5905,18 @@
         <v>290</v>
       </c>
       <c r="G83" s="4">
-        <f>SUM(N83:V83)</f>
-        <v>1</v>
-      </c>
-      <c r="N83" s="4">
-        <v>1</v>
-      </c>
-      <c r="P83" s="4" t="str">
-        <f>IF(ISBLANK(X83), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="4" t="s">
         <v>202</v>
       </c>
@@ -5925,30 +5930,30 @@
         <v>277</v>
       </c>
       <c r="G84" s="4">
-        <f>SUM(N84:V84)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="K84" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K84" s="23" t="s">
+      <c r="L84" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L84" s="23" t="s">
+      <c r="M84" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O84" s="4">
-        <v>1</v>
-      </c>
-      <c r="P84" s="4" t="str">
-        <f>IF(ISBLANK(X84), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="4" t="s">
         <v>202</v>
       </c>
@@ -5965,30 +5970,30 @@
         <v>232</v>
       </c>
       <c r="G85" s="4">
-        <f>SUM(N85:V85)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="K85" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="K85" s="23" t="s">
+      <c r="L85" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="L85" s="23" t="s">
+      <c r="M85" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="P85" s="4" t="str">
-        <f>IF(ISBLANK(X85), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="Q85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="4" t="s">
         <v>202</v>
       </c>
@@ -6002,18 +6007,18 @@
         <v>265</v>
       </c>
       <c r="G86" s="4">
-        <f>SUM(N86:V86)</f>
-        <v>1</v>
-      </c>
-      <c r="O86" s="4">
-        <v>1</v>
-      </c>
-      <c r="P86" s="4" t="str">
-        <f>IF(ISBLANK(X86), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P86" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="4" t="s">
         <v>202</v>
       </c>
@@ -6030,18 +6035,18 @@
         <v>274</v>
       </c>
       <c r="G87" s="4">
-        <f>SUM(N87:V87)</f>
-        <v>1</v>
-      </c>
-      <c r="P87" s="4" t="str">
-        <f>IF(ISBLANK(X87), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="4" t="s">
         <v>202</v>
       </c>
@@ -6058,18 +6063,18 @@
         <v>444</v>
       </c>
       <c r="G88" s="4">
-        <f>SUM(N88:V88)</f>
-        <v>1</v>
-      </c>
-      <c r="P88" s="4" t="str">
-        <f>IF(ISBLANK(X88), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="4" t="s">
         <v>202</v>
       </c>
@@ -6083,30 +6088,30 @@
         <v>414</v>
       </c>
       <c r="G89" s="4">
-        <f>SUM(N89:V89)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="K89" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="L89" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="M89" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="P89" s="4" t="str">
-        <f>IF(ISBLANK(X89), "", 1)</f>
-        <v/>
-      </c>
-      <c r="R89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="Q89" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
@@ -6123,18 +6128,18 @@
         <v>230</v>
       </c>
       <c r="G90" s="4">
-        <f>SUM(N90:V90)</f>
-        <v>1</v>
-      </c>
-      <c r="O90" s="4">
-        <v>1</v>
-      </c>
-      <c r="P90" s="4" t="str">
-        <f>IF(ISBLANK(X90), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="4" t="s">
         <v>48</v>
       </c>
@@ -6148,18 +6153,18 @@
         <v>380</v>
       </c>
       <c r="G91" s="4">
-        <f>SUM(N91:V91)</f>
-        <v>1</v>
-      </c>
-      <c r="P91" s="4" t="str">
-        <f>IF(ISBLANK(X91), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q91" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="4" t="s">
         <v>48</v>
       </c>
@@ -6173,18 +6178,18 @@
         <v>101</v>
       </c>
       <c r="G92" s="4">
-        <f>SUM(N92:V92)</f>
-        <v>1</v>
-      </c>
-      <c r="P92" s="4" t="str">
-        <f>IF(ISBLANK(X92), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q92" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="4" t="s">
         <v>48</v>
       </c>
@@ -6201,30 +6206,30 @@
         <v>459</v>
       </c>
       <c r="G93" s="4">
-        <f>SUM(N93:V93)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J93" s="23" t="s">
+      <c r="K93" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K93" s="23" t="s">
+      <c r="L93" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L93" s="23" t="s">
+      <c r="M93" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P93" s="4" t="str">
-        <f>IF(ISBLANK(X93), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="Q93" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="4" t="s">
         <v>127</v>
       </c>
@@ -6238,18 +6243,18 @@
         <v>128</v>
       </c>
       <c r="G94" s="4">
-        <f>SUM(N94:V94)</f>
-        <v>1</v>
-      </c>
-      <c r="P94" s="4" t="str">
-        <f>IF(ISBLANK(X94), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q94" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
@@ -6263,18 +6268,18 @@
         <v>288</v>
       </c>
       <c r="G95" s="4">
-        <f>SUM(N95:V95)</f>
-        <v>1</v>
-      </c>
-      <c r="N95" s="4">
-        <v>1</v>
-      </c>
-      <c r="P95" s="4" t="str">
-        <f>IF(ISBLANK(X95), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="4" t="s">
         <v>27</v>
       </c>
@@ -6288,18 +6293,18 @@
         <v>64</v>
       </c>
       <c r="G96" s="4">
-        <f>SUM(N96:V96)</f>
-        <v>1</v>
-      </c>
-      <c r="P96" s="4" t="str">
-        <f>IF(ISBLANK(X96), "", 1)</f>
-        <v/>
-      </c>
-      <c r="U96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q96" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="4" t="s">
         <v>27</v>
       </c>
@@ -6313,18 +6318,18 @@
         <v>347</v>
       </c>
       <c r="G97" s="4">
-        <f>SUM(N97:V97)</f>
-        <v>1</v>
-      </c>
-      <c r="N97" s="4">
-        <v>1</v>
-      </c>
-      <c r="P97" s="4" t="str">
-        <f>IF(ISBLANK(X97), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O97" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="4" t="s">
         <v>27</v>
       </c>
@@ -6338,18 +6343,18 @@
         <v>367</v>
       </c>
       <c r="G98" s="4">
-        <f>SUM(N98:V98)</f>
-        <v>1</v>
-      </c>
-      <c r="P98" s="4" t="str">
-        <f>IF(ISBLANK(X98), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+        <f t="shared" ref="G98:G129" si="6">SUM(O98:W98)</f>
+        <v>1</v>
+      </c>
+      <c r="Q98" s="4" t="str">
+        <f t="shared" ref="Q98:Q120" si="7">IF(ISBLANK(Y98), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="4" t="s">
         <v>27</v>
       </c>
@@ -6363,18 +6368,18 @@
         <v>40</v>
       </c>
       <c r="G99" s="4">
-        <f>SUM(N99:V99)</f>
-        <v>1</v>
-      </c>
-      <c r="N99" s="4">
-        <v>1</v>
-      </c>
-      <c r="P99" s="4" t="str">
-        <f>IF(ISBLANK(X99), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O99" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="4" t="s">
         <v>27</v>
       </c>
@@ -6388,18 +6393,18 @@
         <v>77</v>
       </c>
       <c r="G100" s="4">
-        <f>SUM(N100:V100)</f>
-        <v>1</v>
-      </c>
-      <c r="P100" s="4" t="str">
-        <f>IF(ISBLANK(X100), "", 1)</f>
-        <v/>
-      </c>
-      <c r="U100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="4" t="s">
         <v>27</v>
       </c>
@@ -6413,18 +6418,18 @@
         <v>121</v>
       </c>
       <c r="G101" s="4">
-        <f>SUM(N101:V101)</f>
-        <v>1</v>
-      </c>
-      <c r="P101" s="4" t="str">
-        <f>IF(ISBLANK(X101), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q101" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="4" t="s">
         <v>27</v>
       </c>
@@ -6438,18 +6443,18 @@
         <v>104</v>
       </c>
       <c r="G102" s="4">
-        <f>SUM(N102:V102)</f>
-        <v>1</v>
-      </c>
-      <c r="P102" s="4" t="str">
-        <f>IF(ISBLANK(X102), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q102" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="4" t="s">
         <v>27</v>
       </c>
@@ -6466,18 +6471,18 @@
         <v>125</v>
       </c>
       <c r="G103" s="4">
-        <f>SUM(N103:V103)</f>
-        <v>1</v>
-      </c>
-      <c r="P103" s="4" t="str">
-        <f>IF(ISBLANK(X103), "", 1)</f>
-        <v/>
-      </c>
-      <c r="V103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q103" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="B104" s="4" t="s">
         <v>451</v>
       </c>
@@ -6491,18 +6496,18 @@
         <v>306</v>
       </c>
       <c r="G104" s="4">
-        <f>SUM(N104:V104)</f>
-        <v>1</v>
-      </c>
-      <c r="N104" s="4">
-        <v>1</v>
-      </c>
-      <c r="P104" s="4" t="str">
-        <f>IF(ISBLANK(X104), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O104" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="B105" s="4" t="s">
         <v>149</v>
       </c>
@@ -6516,18 +6521,18 @@
         <v>334</v>
       </c>
       <c r="G105" s="4">
-        <f>SUM(N105:V105)</f>
-        <v>1</v>
-      </c>
-      <c r="P105" s="4" t="str">
-        <f>IF(ISBLANK(X105), "", 1)</f>
-        <v/>
-      </c>
-      <c r="U105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q105" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="B106" s="4" t="s">
         <v>149</v>
       </c>
@@ -6541,18 +6546,18 @@
         <v>343</v>
       </c>
       <c r="G106" s="4">
-        <f>SUM(N106:V106)</f>
-        <v>1</v>
-      </c>
-      <c r="O106" s="4">
-        <v>1</v>
-      </c>
-      <c r="P106" s="4" t="str">
-        <f>IF(ISBLANK(X106), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P106" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="B107" s="4" t="s">
         <v>286</v>
       </c>
@@ -6566,18 +6571,18 @@
         <v>252</v>
       </c>
       <c r="G107" s="4">
-        <f>SUM(N107:V107)</f>
-        <v>1</v>
-      </c>
-      <c r="O107" s="4">
-        <v>1</v>
-      </c>
-      <c r="P107" s="4" t="str">
-        <f>IF(ISBLANK(X107), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P107" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="B108" s="4" t="s">
         <v>376</v>
       </c>
@@ -6591,18 +6596,18 @@
         <v>375</v>
       </c>
       <c r="G108" s="4">
-        <f>SUM(N108:V108)</f>
-        <v>1</v>
-      </c>
-      <c r="P108" s="4" t="str">
-        <f>IF(ISBLANK(X108), "", 1)</f>
-        <v/>
-      </c>
-      <c r="Q108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q108" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="B109" s="4" t="s">
         <v>226</v>
       </c>
@@ -6616,18 +6621,18 @@
         <v>331</v>
       </c>
       <c r="G109" s="4">
-        <f>SUM(N109:V109)</f>
-        <v>1</v>
-      </c>
-      <c r="P109" s="4" t="str">
-        <f>IF(ISBLANK(X109), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q109" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="B110" s="4" t="s">
         <v>458</v>
       </c>
@@ -6638,18 +6643,18 @@
         <v>338</v>
       </c>
       <c r="G110" s="4">
-        <f>SUM(N110:V110)</f>
-        <v>1</v>
-      </c>
-      <c r="P110" s="4" t="str">
-        <f>IF(ISBLANK(X110), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q110" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="4" t="s">
         <v>91</v>
       </c>
@@ -6663,15 +6668,15 @@
         <v>92</v>
       </c>
       <c r="G111" s="4">
-        <f>SUM(N111:V111)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P111" s="4" t="str">
-        <f>IF(ISBLANK(X111), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="Q111" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="4" t="s">
         <v>134</v>
       </c>
@@ -6685,15 +6690,15 @@
         <v>208</v>
       </c>
       <c r="G112" s="4">
-        <f>SUM(N112:V112)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P112" s="4" t="str">
-        <f>IF(ISBLANK(X112), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Q112" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" s="4" t="s">
         <v>202</v>
       </c>
@@ -6707,15 +6712,15 @@
         <v>204</v>
       </c>
       <c r="G113" s="4">
-        <f>SUM(N113:V113)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P113" s="4" t="str">
-        <f>IF(ISBLANK(X113), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="Q113" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" s="4" t="s">
         <v>202</v>
       </c>
@@ -6729,21 +6734,21 @@
         <v>379</v>
       </c>
       <c r="G114" s="4">
-        <f>SUM(N114:V114)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N114" s="4">
+      <c r="O114" s="4">
         <v>-1</v>
       </c>
-      <c r="P114" s="4" t="str">
-        <f>IF(ISBLANK(X114), "", 1)</f>
-        <v/>
-      </c>
-      <c r="S114" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Q114" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" s="4" t="s">
         <v>196</v>
       </c>
@@ -6757,15 +6762,15 @@
         <v>198</v>
       </c>
       <c r="G115" s="4">
-        <f>SUM(N115:V115)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P115" s="4" t="str">
-        <f>IF(ISBLANK(X115), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Q115" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" s="4" t="s">
         <v>202</v>
       </c>
@@ -6782,15 +6787,15 @@
         <v>244</v>
       </c>
       <c r="G116" s="4">
-        <f>SUM(N116:V116)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P116" s="4" t="str">
-        <f>IF(ISBLANK(X116), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="Q116" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" s="4" t="s">
         <v>202</v>
       </c>
@@ -6807,15 +6812,15 @@
         <v>257</v>
       </c>
       <c r="G117" s="4">
-        <f>SUM(N117:V117)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P117" s="4" t="str">
-        <f>IF(ISBLANK(X117), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="Q117" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" s="4" t="s">
         <v>202</v>
       </c>
@@ -6829,15 +6834,15 @@
         <v>297</v>
       </c>
       <c r="G118" s="4">
-        <f>SUM(N118:V118)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P118" s="4" t="str">
-        <f>IF(ISBLANK(X118), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="Q118" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" s="4" t="s">
         <v>202</v>
       </c>
@@ -6851,15 +6856,15 @@
         <v>234</v>
       </c>
       <c r="G119" s="4">
-        <f>SUM(N119:V119)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P119" s="4" t="str">
-        <f>IF(ISBLANK(X119), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="Q119" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" s="4" t="s">
         <v>202</v>
       </c>
@@ -6876,15 +6881,15 @@
         <v>428</v>
       </c>
       <c r="G120" s="4">
-        <f>SUM(N120:V120)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P120" s="4" t="str">
-        <f>IF(ISBLANK(X120), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="Q120" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" s="4" t="s">
         <v>202</v>
       </c>
@@ -6901,20 +6906,20 @@
         <v>510</v>
       </c>
       <c r="G121" s="4">
-        <f>SUM(N121:V121)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J121" s="23" t="s">
+      <c r="K121" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="K121" s="23" t="s">
+      <c r="L121" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="L121" s="23" t="s">
+      <c r="M121" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:25">
       <c r="A122" s="4" t="s">
         <v>202</v>
       </c>
@@ -6931,20 +6936,20 @@
         <v>512</v>
       </c>
       <c r="G122" s="4">
-        <f>SUM(N122:V122)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K122" s="23" t="s">
+      <c r="L122" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L122" s="23" t="s">
+      <c r="M122" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:25">
       <c r="A123" s="4" t="s">
         <v>48</v>
       </c>
@@ -6961,15 +6966,15 @@
         <v>295</v>
       </c>
       <c r="G123" s="4">
-        <f>SUM(N123:V123)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P123" s="4" t="str">
-        <f>IF(ISBLANK(X123), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="Q123" s="4" t="str">
+        <f>IF(ISBLANK(Y123), "", 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" s="4" t="s">
         <v>127</v>
       </c>
@@ -6986,15 +6991,15 @@
         <v>271</v>
       </c>
       <c r="G124" s="4">
-        <f>SUM(N124:V124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P124" s="4" t="str">
-        <f>IF(ISBLANK(X124), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="Q124" s="4" t="str">
+        <f>IF(ISBLANK(Y124), "", 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" s="4" t="s">
         <v>27</v>
       </c>
@@ -7011,15 +7016,15 @@
         <v>66</v>
       </c>
       <c r="G125" s="4">
-        <f>SUM(N125:V125)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P125" s="4" t="str">
-        <f>IF(ISBLANK(X125), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="Q125" s="4" t="str">
+        <f>IF(ISBLANK(Y125), "", 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" s="4" t="s">
         <v>27</v>
       </c>
@@ -7033,14 +7038,14 @@
         <v>506</v>
       </c>
       <c r="G126" s="4">
-        <f>SUM(N126:V126)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:25">
       <c r="A127" s="4" t="s">
         <v>61</v>
       </c>
@@ -7057,15 +7062,15 @@
         <v>217</v>
       </c>
       <c r="G127" s="4">
-        <f>SUM(N127:V127)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P127" s="4" t="str">
-        <f>IF(ISBLANK(X127), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="Q127" s="4" t="str">
+        <f t="shared" ref="Q127:Q139" si="8">IF(ISBLANK(Y127), "", 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="B128" s="4" t="s">
         <v>149</v>
       </c>
@@ -7079,15 +7084,15 @@
         <v>263</v>
       </c>
       <c r="G128" s="4">
-        <f>SUM(N128:V128)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P128" s="4" t="str">
-        <f>IF(ISBLANK(X128), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="2:24">
+      <c r="Q128" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:25">
       <c r="B129" s="4" t="s">
         <v>149</v>
       </c>
@@ -7101,15 +7106,15 @@
         <v>324</v>
       </c>
       <c r="G129" s="4">
-        <f>SUM(N129:V129)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P129" s="4" t="str">
-        <f>IF(ISBLANK(X129), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="2:24">
+      <c r="Q129" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:25">
       <c r="B130" s="4" t="s">
         <v>149</v>
       </c>
@@ -7123,15 +7128,15 @@
         <v>328</v>
       </c>
       <c r="G130" s="4">
-        <f>SUM(N130:V130)</f>
+        <f t="shared" ref="G130:G139" si="9">SUM(O130:W130)</f>
         <v>0</v>
       </c>
-      <c r="P130" s="4" t="str">
-        <f>IF(ISBLANK(X130), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="2:24">
+      <c r="Q130" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:25">
       <c r="B131" s="4" t="s">
         <v>149</v>
       </c>
@@ -7145,15 +7150,15 @@
         <v>345</v>
       </c>
       <c r="G131" s="4">
-        <f>SUM(N131:V131)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P131" s="4" t="str">
-        <f>IF(ISBLANK(X131), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="2:24">
+      <c r="Q131" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:25">
       <c r="B132" s="4" t="s">
         <v>149</v>
       </c>
@@ -7164,15 +7169,15 @@
         <v>340</v>
       </c>
       <c r="G132" s="4">
-        <f>SUM(N132:V132)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P132" s="4" t="str">
-        <f>IF(ISBLANK(X132), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="2:24">
+      <c r="Q132" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:25">
       <c r="B133" s="4" t="s">
         <v>318</v>
       </c>
@@ -7186,15 +7191,15 @@
         <v>320</v>
       </c>
       <c r="G133" s="4">
-        <f>SUM(N133:V133)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P133" s="4" t="str">
-        <f>IF(ISBLANK(X133), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="2:24">
+      <c r="Q133" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:25">
       <c r="B134" s="4" t="s">
         <v>201</v>
       </c>
@@ -7205,15 +7210,15 @@
         <v>200</v>
       </c>
       <c r="G134" s="4">
-        <f>SUM(N134:V134)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P134" s="4" t="str">
-        <f>IF(ISBLANK(X134), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="2:24">
+      <c r="Q134" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:25">
       <c r="B135" s="4" t="s">
         <v>201</v>
       </c>
@@ -7224,15 +7229,15 @@
         <v>381</v>
       </c>
       <c r="G135" s="4">
-        <f>SUM(N135:V135)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P135" s="4" t="str">
-        <f>IF(ISBLANK(X135), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="2:24">
+      <c r="Q135" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:25">
       <c r="B136" s="4" t="s">
         <v>311</v>
       </c>
@@ -7243,15 +7248,15 @@
         <v>310</v>
       </c>
       <c r="G136" s="4">
-        <f>SUM(N136:V136)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P136" s="4" t="str">
-        <f>IF(ISBLANK(X136), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="2:24">
+      <c r="Q136" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:25">
       <c r="B137" s="4" t="s">
         <v>303</v>
       </c>
@@ -7265,15 +7270,15 @@
         <v>301</v>
       </c>
       <c r="G137" s="4">
-        <f>SUM(N137:V137)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P137" s="4" t="str">
-        <f>IF(ISBLANK(X137), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="2:24">
+      <c r="Q137" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:25">
       <c r="B138" s="4" t="s">
         <v>286</v>
       </c>
@@ -7284,15 +7289,15 @@
         <v>292</v>
       </c>
       <c r="G138" s="4">
-        <f>SUM(N138:V138)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P138" s="4" t="str">
-        <f>IF(ISBLANK(X138), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="2:24">
+      <c r="Q138" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:25">
       <c r="B139" s="4" t="s">
         <v>219</v>
       </c>
@@ -7303,15 +7308,15 @@
         <v>336</v>
       </c>
       <c r="G139" s="4">
-        <f>SUM(N139:V139)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P139" s="4" t="str">
-        <f>IF(ISBLANK(X139), "", 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="2:24">
+      <c r="Q139" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:25">
       <c r="B140" s="20" t="s">
         <v>520</v>
       </c>
@@ -7321,12 +7326,12 @@
       <c r="E140" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="X140" t="s">
+      <c r="Y140" t="s">
         <v>516</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AA50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB50">
     <sortCondition ref="A3:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7337,7 +7342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8825AA-A5AA-EB48-96DA-617D57988EAB}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/native_garden.xlsx
+++ b/native_garden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisedgemon/repos/planting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981F714-DC2F-554D-B444-96C50B1AA1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2DFCEA-FD4B-6C45-8EFB-697958CD2718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" activeTab="1" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
+    <workbookView xWindow="80" yWindow="480" windowWidth="25440" windowHeight="14120" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD367B52-4A65-FE4D-B97C-D9C08B69CC5F}">
   <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:I44"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2324,26 +2324,23 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G33" si="0">SUM(O2:W2)</f>
-        <v>5</v>
+        <f>SUM(O2:W2)</f>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>388</v>
@@ -2352,11 +2349,17 @@
         <v>55</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q2" s="4" t="str">
-        <f t="shared" ref="Q2:Q33" si="1">IF(ISBLANK(Y2), "", 1)</f>
-        <v/>
+        <v>56</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>IF(ISBLANK(Y2), "", 1)</f>
+        <v>1</v>
       </c>
       <c r="R2" s="4">
         <v>1</v>
@@ -2367,44 +2370,50 @@
       <c r="T2" s="4">
         <v>1</v>
       </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
       <c r="W2" s="4">
         <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(O3:W3)</f>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>393</v>
+        <v>56</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y3), "", 1)</f>
         <v>1</v>
       </c>
       <c r="R3" s="4">
@@ -2420,34 +2429,34 @@
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(O4:W4)</f>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>55</v>
@@ -2458,11 +2467,20 @@
       <c r="O4" s="4">
         <v>1</v>
       </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
       <c r="Q4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R4" s="4">
+        <f>IF(ISBLANK(Y4), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
         <v>1</v>
       </c>
       <c r="V4" s="4">
@@ -2474,20 +2492,20 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(O5:W5)</f>
+        <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>54</v>
@@ -2496,22 +2514,28 @@
         <v>388</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y5), "", 1)</f>
+        <v/>
       </c>
       <c r="S5" s="4">
         <v>1</v>
       </c>
       <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
         <v>1</v>
       </c>
       <c r="W5" s="4">
@@ -2520,41 +2544,47 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O6:W6)</f>
+        <v>6</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(ISBLANK(Y6), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
       </c>
       <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
         <v>1</v>
       </c>
       <c r="V6" s="4">
@@ -2566,32 +2596,35 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>146</v>
+        <v>87</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(O7:W7)</f>
+        <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="O7" s="4">
         <v>1</v>
@@ -2599,54 +2632,57 @@
       <c r="P7" s="4">
         <v>1</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1</v>
+      <c r="Q7" s="4" t="str">
+        <f>IF(ISBLANK(Y7), "", 1)</f>
+        <v/>
       </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
         <v>1</v>
       </c>
       <c r="W7" s="4">
         <v>1</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>219</v>
+        <v>386</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>163</v>
+        <v>73</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(O8:W8)</f>
+        <v>6</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="K8" s="23" t="s">
         <v>392</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O8" s="4">
         <v>1</v>
@@ -2655,10 +2691,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U8" s="4">
+        <f>IF(ISBLANK(Y8), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="V8" s="4">
@@ -2670,47 +2709,53 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>205</v>
+        <v>386</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(O9:W9)</f>
+        <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y9), "", 1)</f>
+        <v/>
       </c>
       <c r="S9" s="4">
         <v>1</v>
       </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
       <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2719,17 +2764,17 @@
         <v>202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(O10:W10)</f>
+        <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>54</v>
@@ -2741,44 +2786,47 @@
         <v>82</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="O10" s="4">
         <v>1</v>
       </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
       <c r="Q10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
+        <f>IF(ISBLANK(Y10), "", 1)</f>
+        <v/>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(O11:W11)</f>
+        <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>54</v>
@@ -2787,16 +2835,13 @@
         <v>388</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M11" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P11" s="4">
-        <v>-1</v>
-      </c>
       <c r="Q11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y11), "", 1)</f>
         <v/>
       </c>
       <c r="R11" s="4">
@@ -2805,10 +2850,10 @@
       <c r="S11" s="4">
         <v>1</v>
       </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
       <c r="U11" s="4">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4">
         <v>1</v>
       </c>
       <c r="W11" s="4">
@@ -2817,182 +2862,179 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(O12:W12)</f>
+        <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="Q12" s="4">
+        <f>IF(ISBLANK(Y12), "", 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
       </c>
       <c r="V12" s="4">
         <v>1</v>
       </c>
       <c r="W12" s="4">
         <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O13:W13)</f>
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>392</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="P13" s="4">
+        <v>56</v>
+      </c>
+      <c r="O13" s="4">
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R13" s="4">
+        <f>IF(ISBLANK(Y13), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13" s="4">
         <v>1</v>
       </c>
-      <c r="W13" s="4">
+      <c r="V13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O14:W14)</f>
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>394</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f>IF(ISBLANK(Y14), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R14" s="4">
         <v>1</v>
       </c>
       <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="V14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>502</v>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O15:W15)</f>
+        <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="O15" s="4">
-        <v>-1</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y15), "", 1)</f>
         <v/>
       </c>
       <c r="R15" s="4">
@@ -3004,75 +3046,77 @@
       <c r="T15" s="4">
         <v>1</v>
       </c>
-      <c r="V15" s="4">
+      <c r="U15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="4" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>176</v>
+        <v>81</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O16:W16)</f>
+        <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="8"/>
       <c r="Q16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R16" s="4">
-        <v>1</v>
-      </c>
-      <c r="T16" s="4">
+        <f>IF(ISBLANK(Y16), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="4" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O17:W17)</f>
+        <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>54</v>
@@ -3081,139 +3125,151 @@
         <v>388</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(ISBLANK(Y17), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
       </c>
       <c r="U17" s="4">
         <v>1</v>
       </c>
       <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>382</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>436</v>
+        <v>136</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O18:W18)</f>
+        <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>56</v>
+        <v>393</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y18), "", 1)</f>
         <v/>
       </c>
       <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="S18" s="4">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>401</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O19:W19)</f>
+        <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>57</v>
+        <v>393</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R19" s="4">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
+        <f>IF(ISBLANK(Y19), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>458</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>180</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O20:W20)</f>
+        <v>4</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>55</v>
@@ -3221,36 +3277,42 @@
       <c r="M20" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
       <c r="Q20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y20), "", 1)</f>
         <v/>
       </c>
       <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="4">
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="4">
+        <f>SUM(O21:W21)</f>
         <v>4</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>54</v>
@@ -3259,20 +3321,20 @@
         <v>388</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="P21" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(ISBLANK(Y21), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
       </c>
       <c r="S21" s="4">
         <v>1</v>
@@ -3289,23 +3351,23 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(O22:W22)</f>
+        <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>54</v>
@@ -3317,46 +3379,40 @@
         <v>394</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O22" s="4">
         <v>1</v>
       </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="Q22" s="4">
+        <f>IF(ISBLANK(Y22), "", 1)</f>
+        <v>1</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
-      <c r="U22" s="4">
-        <v>1</v>
-      </c>
       <c r="V22" s="4">
         <v>1</v>
       </c>
-      <c r="W22" s="4">
-        <v>1</v>
+      <c r="Y22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O23:W23)</f>
         <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -3366,99 +3422,99 @@
         <v>392</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P23" s="4">
+      <c r="O23" s="4">
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(ISBLANK(Y23), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
       </c>
       <c r="S23" s="4">
         <v>1</v>
       </c>
-      <c r="U23" s="4">
-        <v>1</v>
-      </c>
-      <c r="V23" s="4">
+      <c r="T23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>369</v>
+        <v>152</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O24:W24)</f>
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>56</v>
+        <v>393</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R24" s="4">
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <v>1</v>
-      </c>
-      <c r="U24" s="4">
+        <f>IF(ISBLANK(Y24), "", 1)</f>
+        <v/>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O25:W25)</f>
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>394</v>
@@ -3470,62 +3526,62 @@
         <v>1</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(ISBLANK(Y25), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
       </c>
       <c r="S25" s="4">
         <v>1</v>
       </c>
-      <c r="U25" s="4">
-        <v>1</v>
-      </c>
-      <c r="W25" s="4">
+      <c r="V25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>530</v>
+        <v>151</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O26:W26)</f>
+        <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>399</v>
       </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
       <c r="Q26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S26" s="4">
-        <v>1</v>
-      </c>
-      <c r="U26" s="4">
-        <v>1</v>
-      </c>
-      <c r="V26" s="4">
+        <f>IF(ISBLANK(Y26), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+      <c r="W26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3534,41 +3590,44 @@
         <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(O27:W27)</f>
+        <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>392</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>57</v>
+        <v>399</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(ISBLANK(Y27), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
       </c>
       <c r="U27" s="4">
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
         <v>1</v>
       </c>
       <c r="W27" s="4">
@@ -3580,29 +3639,26 @@
         <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>529</v>
+        <v>447</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O28:W28)</f>
         <v>3</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="K28" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>55</v>
@@ -3610,18 +3666,18 @@
       <c r="M28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="Q28" s="4" t="str">
+        <f>IF(ISBLANK(Y28), "", 1)</f>
+        <v/>
       </c>
       <c r="U28" s="4">
         <v>1</v>
       </c>
-      <c r="Y28" t="s">
-        <v>518</v>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3629,65 +3685,68 @@
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>451</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>463</v>
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O29:W29)</f>
         <v>3</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="I29" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="K29" s="23" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>393</v>
+        <v>57</v>
       </c>
       <c r="P29" s="4">
         <v>1</v>
       </c>
-      <c r="Q29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="Q29" s="4">
+        <f>IF(ISBLANK(Y29), "", 1)</f>
+        <v>1</v>
       </c>
       <c r="U29" s="4">
         <v>1</v>
       </c>
-      <c r="V29" s="4">
-        <v>1</v>
+      <c r="Y29" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>465</v>
+        <v>44</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>466</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O30:W30)</f>
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -3700,74 +3759,62 @@
         <v>55</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y30), "", 1)</f>
         <v/>
       </c>
       <c r="T30" s="4">
         <v>1</v>
       </c>
       <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>25</v>
+        <v>149</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>75</v>
+        <v>148</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(O31:W31)</f>
+        <v>3</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="K31" s="23" t="s">
         <v>396</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="O31" s="4">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S31" s="4">
+        <f>IF(ISBLANK(Y31), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R31" s="4">
         <v>1</v>
       </c>
       <c r="T31" s="4">
-        <v>1</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
-      <c r="V31" s="4">
         <v>1</v>
       </c>
       <c r="W31" s="4">
@@ -3776,47 +3823,41 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>93</v>
+        <v>137</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>94</v>
+        <v>140</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(O32:W32)</f>
+        <v>3</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="4">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
+      <c r="Q32" s="4" t="str">
+        <f>IF(ISBLANK(Y32), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S32" s="4">
         <v>1</v>
       </c>
       <c r="V32" s="4">
@@ -3824,54 +3865,42 @@
       </c>
       <c r="W32" s="4">
         <v>1</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(O33:W33)</f>
+        <v>3</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="K33" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(Y33), "", 1)</f>
         <v/>
       </c>
       <c r="R33" s="4">
@@ -3880,10 +3909,7 @@
       <c r="S33" s="4">
         <v>1</v>
       </c>
-      <c r="V33" s="4">
-        <v>1</v>
-      </c>
-      <c r="W33" s="4">
+      <c r="T33" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3892,17 +3918,17 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>473</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:G65" si="2">SUM(O34:W34)</f>
-        <v>6</v>
+        <f>SUM(O34:W34)</f>
+        <v>3</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>54</v>
@@ -3911,31 +3937,22 @@
         <v>392</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q65" si="3">IF(ISBLANK(Y34), "", 1)</f>
+        <f>IF(ISBLANK(Y34), "", 1)</f>
         <v/>
       </c>
       <c r="S34" s="4">
         <v>1</v>
       </c>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
       <c r="U34" s="4">
         <v>1</v>
       </c>
       <c r="V34" s="4">
-        <v>1</v>
-      </c>
-      <c r="W34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3944,17 +3961,20 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>38</v>
+        <v>190</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>SUM(O35:W35)</f>
+        <v>3</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>54</v>
@@ -3963,71 +3983,59 @@
         <v>392</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y35), "", 1)</f>
         <v/>
       </c>
       <c r="R35" s="4">
         <v>1</v>
       </c>
-      <c r="S35" s="4">
-        <v>1</v>
-      </c>
       <c r="T35" s="4">
-        <v>1</v>
-      </c>
-      <c r="U35" s="4">
-        <v>1</v>
-      </c>
-      <c r="V35" s="4">
-        <v>1</v>
-      </c>
-      <c r="W35" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(O36:W36)</f>
+        <v>3</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>528</v>
+        <v>54</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M36" s="23" t="s">
         <v>56</v>
       </c>
       <c r="O36" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y36), "", 1)</f>
         <v/>
       </c>
       <c r="S36" s="4">
@@ -4037,52 +4045,58 @@
         <v>1</v>
       </c>
       <c r="V36" s="4">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>521</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(O37:W37)</f>
+        <v>3</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="K37" s="23" t="s">
         <v>392</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>393</v>
+        <v>56</v>
+      </c>
+      <c r="N37" t="s">
+        <v>528</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R37" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y37), "", 1)</f>
+        <v/>
       </c>
       <c r="S37" s="4">
-        <v>1</v>
-      </c>
-      <c r="V37" s="4">
         <v>1</v>
       </c>
       <c r="W37" s="4">
@@ -4091,22 +4105,22 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O38:W38)</f>
         <v>3</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -4119,83 +4133,83 @@
         <v>55</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>57</v>
+        <v>393</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(ISBLANK(Y38), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
       </c>
       <c r="T38" s="4">
-        <v>1</v>
-      </c>
-      <c r="U38" s="4">
-        <v>1</v>
-      </c>
-      <c r="V38" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>473</v>
+        <v>179</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O39:W39)</f>
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L39" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>56</v>
+        <v>393</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S39" s="4">
-        <v>1</v>
-      </c>
-      <c r="U39" s="4">
-        <v>1</v>
-      </c>
-      <c r="V39" s="4">
+        <f>IF(ISBLANK(Y39), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>419</v>
+        <v>462</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O40:W40)</f>
         <v>3</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4205,7 +4219,7 @@
         <v>396</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M40" s="23" t="s">
         <v>393</v>
@@ -4214,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S40" s="4">
+        <f>IF(ISBLANK(Y40), "", 1)</f>
+        <v/>
+      </c>
+      <c r="U40" s="4">
         <v>1</v>
       </c>
       <c r="V40" s="4">
@@ -4226,32 +4240,32 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>35</v>
+        <v>458</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>36</v>
+        <v>466</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O41:W41)</f>
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M41" s="23" t="s">
         <v>393</v>
@@ -4260,42 +4274,39 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R41" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y41), "", 1)</f>
+        <v/>
       </c>
       <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>386</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O42:W42)</f>
         <v>3</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="K42" s="23" t="s">
         <v>388</v>
       </c>
@@ -4305,11 +4316,11 @@
       <c r="M42" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y42), "", 1)</f>
         <v/>
       </c>
       <c r="U42" s="4">
@@ -4324,44 +4335,41 @@
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O43:W43)</f>
         <v>3</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="K43" s="23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M43" s="23" t="s">
         <v>393</v>
       </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
       <c r="Q43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y43), "", 1)</f>
         <v/>
       </c>
       <c r="S43" s="4">
-        <v>1</v>
-      </c>
-      <c r="U43" s="4">
         <v>1</v>
       </c>
       <c r="V43" s="4">
@@ -4373,44 +4381,47 @@
         <v>27</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>386</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O44:W44)</f>
         <v>3</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="I44" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="K44" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L44" s="23" t="s">
         <v>394</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" s="4">
+        <v>393</v>
+      </c>
+      <c r="O44" s="4">
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R44" s="4">
-        <v>1</v>
-      </c>
-      <c r="T44" s="4">
+        <f>IF(ISBLANK(Y44), "", 1)</f>
+        <v/>
+      </c>
+      <c r="U44" s="4">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4419,145 +4430,140 @@
         <v>61</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(O45:W45)</f>
+        <v>3</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="J45" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="K45" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>528</v>
+        <v>393</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S45" s="4">
-        <v>1</v>
-      </c>
-      <c r="U45" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y45), "", 1)</f>
+        <v/>
       </c>
       <c r="V45" s="4">
-        <v>1</v>
-      </c>
-      <c r="W45" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>6</v>
+        <v>386</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(O46:W46)</f>
+        <v>3</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
       <c r="Q46" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S46" s="4">
-        <v>1</v>
-      </c>
-      <c r="U46" s="4">
-        <v>1</v>
-      </c>
-      <c r="V46" s="4">
-        <v>1</v>
-      </c>
-      <c r="W46" s="4">
+        <f>IF(ISBLANK(Y46), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="T46" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O47:W47)</f>
         <v>3</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>526</v>
+      <c r="I47" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="K47" s="23" t="s">
         <v>392</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="O47" s="4">
-        <v>1</v>
-      </c>
-      <c r="P47" s="4">
-        <v>1</v>
-      </c>
       <c r="Q47" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(ISBLANK(Y47), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4">
+        <v>1</v>
       </c>
       <c r="V47" s="4">
         <v>1</v>
@@ -4580,7 +4586,7 @@
         <v>525</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O48:W48)</f>
         <v>3</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -4602,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y48), "", 1)</f>
         <v/>
       </c>
       <c r="S48" s="4">
@@ -4612,41 +4618,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:25">
       <c r="A49" s="4" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O49:W49)</f>
         <v>3</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="O49" s="4">
         <v>-1</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(ISBLANK(Y49), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R49" s="4">
+        <v>1</v>
       </c>
       <c r="S49" s="4">
         <v>1</v>
@@ -4657,63 +4666,54 @@
       <c r="V49" s="4">
         <v>1</v>
       </c>
-      <c r="W49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>456</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O50:W50)</f>
         <v>3</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>524</v>
-      </c>
       <c r="K50" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="N50" t="s">
-        <v>528</v>
-      </c>
-      <c r="P50" s="4">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y50), "", 1)</f>
         <v/>
       </c>
       <c r="S50" s="4">
         <v>1</v>
       </c>
-      <c r="W50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
@@ -4721,13 +4721,13 @@
         <v>137</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O51:W51)</f>
         <v>2</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -4740,34 +4740,37 @@
         <v>55</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y51), "", 1)</f>
         <v/>
       </c>
       <c r="R51" s="4">
         <v>1</v>
       </c>
-      <c r="S51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="4" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>187</v>
+        <v>314</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O52:W52)</f>
         <v>2</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -4783,60 +4786,57 @@
         <v>57</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R52" s="4">
-        <v>1</v>
-      </c>
-      <c r="U52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <f>IF(ISBLANK(Y52), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+      <c r="V52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O53:W53)</f>
         <v>2</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P53" s="4">
-        <v>1</v>
-      </c>
       <c r="Q53" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <f>IF(ISBLANK(Y53), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R53" s="4">
+        <v>1</v>
+      </c>
+      <c r="W53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="4" t="s">
         <v>202</v>
       </c>
@@ -4844,162 +4844,162 @@
         <v>149</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>449</v>
+        <v>467</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O54:W54)</f>
         <v>2</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="K54" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="M54" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R54" s="4">
-        <v>1</v>
-      </c>
-      <c r="T54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <f>IF(ISBLANK(Y54), "", 1)</f>
+        <v/>
+      </c>
+      <c r="U54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O55:W55)</f>
         <v>2</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K55" s="23" t="s">
-        <v>388</v>
-      </c>
       <c r="L55" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M55" s="23" t="s">
         <v>57</v>
       </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
       <c r="Q55" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S55" s="4">
-        <v>1</v>
-      </c>
-      <c r="V55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+        <f>IF(ISBLANK(Y55), "", 1)</f>
+        <v/>
+      </c>
+      <c r="W55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>248</v>
+        <v>386</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O56:W56)</f>
         <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>388</v>
+        <v>54</v>
       </c>
       <c r="L56" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="O56" s="4">
-        <v>1</v>
-      </c>
-      <c r="P56" s="4">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <f>IF(ISBLANK(Y56), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S56" s="4">
+        <v>1</v>
+      </c>
+      <c r="V56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O57:W57)</f>
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>393</v>
+        <v>57</v>
       </c>
       <c r="P57" s="4">
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <f>IF(ISBLANK(Y57), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="4" t="s">
         <v>202</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>285</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O58:W58)</f>
         <v>2</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -5035,154 +5035,145 @@
         <v>1</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y58), "", 1)</f>
         <v/>
       </c>
       <c r="R58" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:25">
       <c r="A59" s="4" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>452</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O59:W59)</f>
         <v>2</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K59" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="L59" s="23" t="s">
-        <v>55</v>
-      </c>
       <c r="M59" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q59" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R59" s="4">
-        <v>1</v>
-      </c>
-      <c r="W59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+        <v>402</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>IF(ISBLANK(Y59), "", 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>482</v>
+        <v>170</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O60:W60)</f>
         <v>2</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L60" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="O60" s="4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q60" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <f>IF(ISBLANK(Y60), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R60" s="4">
+        <v>1</v>
+      </c>
+      <c r="S60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>248</v>
+        <v>458</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>445</v>
+        <v>470</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O61:W61)</f>
         <v>2</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>399</v>
+        <v>56</v>
       </c>
       <c r="P61" s="4">
         <v>1</v>
       </c>
       <c r="Q61" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <f>IF(ISBLANK(Y61), "", 1)</f>
+        <v/>
+      </c>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>467</v>
+      <c r="D62" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>469</v>
+        <v>442</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O62:W62)</f>
         <v>2</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -5195,34 +5186,34 @@
         <v>55</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P62" s="4">
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <f>IF(ISBLANK(Y62), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>458</v>
+        <v>108</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>471</v>
+        <v>192</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O63:W63)</f>
         <v>2</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -5237,58 +5228,61 @@
       <c r="M63" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="4">
-        <v>1</v>
-      </c>
       <c r="Q63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <f>IF(ISBLANK(Y63), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R63" s="4">
+        <v>1</v>
+      </c>
+      <c r="T63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O64:W64)</f>
         <v>2</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="K64" s="23" t="s">
+        <v>388</v>
+      </c>
       <c r="L64" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P64" s="4">
         <v>1</v>
       </c>
       <c r="Q64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y64), "", 1)</f>
         <v/>
       </c>
       <c r="W64" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:23">
       <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
@@ -5305,7 +5299,7 @@
         <v>99</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(O65:W65)</f>
         <v>2</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -5321,7 +5315,7 @@
         <v>56</v>
       </c>
       <c r="Q65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(Y65), "", 1)</f>
         <v/>
       </c>
       <c r="S65" s="4">
@@ -5331,197 +5325,200 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:23">
       <c r="A66" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>442</v>
+      <c r="D66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" ref="G66:G97" si="4">SUM(O66:W66)</f>
+        <f>SUM(O66:W66)</f>
         <v>2</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K66" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="L66" s="23" t="s">
-        <v>55</v>
-      </c>
       <c r="M66" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P66" s="4">
-        <v>1</v>
-      </c>
       <c r="Q66" s="4" t="str">
-        <f t="shared" ref="Q66:Q97" si="5">IF(ISBLANK(Y66), "", 1)</f>
-        <v/>
+        <f>IF(ISBLANK(Y66), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R66" s="4">
+        <v>1</v>
       </c>
       <c r="T66" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:23">
       <c r="A67" s="4" t="s">
-        <v>405</v>
+        <v>202</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O67:W67)</f>
         <v>2</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="M67" s="23" t="s">
         <v>393</v>
       </c>
+      <c r="O67" s="4">
+        <v>1</v>
+      </c>
       <c r="P67" s="4">
         <v>1</v>
       </c>
       <c r="Q67" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="W67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <f>IF(ISBLANK(Y67), "", 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="4" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>400</v>
+        <v>210</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O68:W68)</f>
         <v>2</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="K68" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="M68" s="23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P68" s="4">
         <v>1</v>
       </c>
-      <c r="Q68" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Q68" s="4" t="str">
+        <f>IF(ISBLANK(Y68), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="4" t="s">
-        <v>27</v>
+        <v>405</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>370</v>
+        <v>118</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O69:W69)</f>
         <v>2</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="M69" s="23" t="s">
         <v>393</v>
       </c>
+      <c r="P69" s="4">
+        <v>1</v>
+      </c>
       <c r="Q69" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R69" s="4">
-        <v>1</v>
-      </c>
-      <c r="T69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+        <f>IF(ISBLANK(Y69), "", 1)</f>
+        <v/>
+      </c>
+      <c r="W69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>349</v>
+        <v>361</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O70:W70)</f>
         <v>2</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="Q70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y70), "", 1)</f>
         <v/>
       </c>
       <c r="R70" s="4">
@@ -5531,363 +5528,411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:23">
       <c r="A71" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>72</v>
+        <v>482</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O71:W71)</f>
         <v>2</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="K71" s="23" t="s">
+        <v>392</v>
+      </c>
       <c r="L71" s="23" t="s">
         <v>55</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>57</v>
+        <v>399</v>
+      </c>
+      <c r="O71" s="4">
+        <v>1</v>
       </c>
       <c r="Q71" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S71" s="4">
-        <v>1</v>
-      </c>
-      <c r="V71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+        <f>IF(ISBLANK(Y71), "", 1)</f>
+        <v/>
+      </c>
+      <c r="U71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>107</v>
+        <v>437</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>438</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O72:W72)</f>
         <v>2</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="P72" s="4">
         <v>1</v>
       </c>
       <c r="Q72" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="W72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <f>IF(ISBLANK(Y72), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>365</v>
+        <v>221</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O73:W73)</f>
         <v>2</v>
       </c>
+      <c r="H73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="L73" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>399</v>
+      </c>
       <c r="Q73" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R73" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y73), "", 1)</f>
+        <v/>
       </c>
       <c r="T73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="V73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" s="4">
+        <f>SUM(O74:W74)</f>
+        <v>2</v>
+      </c>
+      <c r="Q74" s="4" t="str">
+        <f>IF(ISBLANK(Y74), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R74" s="4">
+        <v>1</v>
+      </c>
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G74" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="D75" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="4">
+        <f>SUM(O75:W75)</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="K75" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q75" s="4" t="str">
+        <f>IF(ISBLANK(Y75), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G76" s="4">
+        <f>SUM(O76:W76)</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="M76" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q76" s="4" t="str">
+        <f>IF(ISBLANK(Y76), "", 1)</f>
+        <v/>
+      </c>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G77" s="4">
+        <f>SUM(O77:W77)</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K77" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="L74" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="M74" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q74" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T74" s="4">
-        <v>1</v>
-      </c>
-      <c r="V74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
-      <c r="A75" s="4" t="s">
+      <c r="L77" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M77" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q77" s="4" t="str">
+        <f>IF(ISBLANK(Y77), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G78" s="4">
+        <f>SUM(O78:W78)</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="L78" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M78" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4" t="str">
+        <f>IF(ISBLANK(Y78), "", 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G75" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q75" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
-      <c r="A76" s="4" t="s">
+      <c r="G79" s="4">
+        <f>SUM(O79:W79)</f>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4" t="str">
+        <f>IF(ISBLANK(Y79), "", 1)</f>
+        <v/>
+      </c>
+      <c r="V79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q76" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
-      <c r="A77" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="G77" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q77" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
-      <c r="A78" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G78" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q78" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="W78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
-      <c r="A79" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G79" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q79" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
-      <c r="A80" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="G80" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O80:W80)</f>
         <v>1</v>
       </c>
       <c r="Q80" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T80" s="4">
+        <f>IF(ISBLANK(Y80), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R80" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O81:W81)</f>
         <v>1</v>
       </c>
       <c r="Q81" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T81" s="4">
+        <f>IF(ISBLANK(Y81), "", 1)</f>
+        <v/>
+      </c>
+      <c r="R81" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>455</v>
+        <v>137</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>378</v>
+        <v>139</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O82:W82)</f>
         <v>1</v>
       </c>
       <c r="Q82" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T82" s="4">
+        <f>IF(ISBLANK(Y82), "", 1)</f>
+        <v/>
+      </c>
+      <c r="W82" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5896,24 +5941,27 @@
         <v>202</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>16</v>
+        <v>238</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>290</v>
+        <v>237</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O83" s="4">
+        <f>SUM(O83:W83)</f>
         <v>1</v>
       </c>
       <c r="Q83" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF(ISBLANK(Y83), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T83" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -5921,36 +5969,27 @@
         <v>202</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>277</v>
+        <v>214</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="L84" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M84" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="P84" s="4">
+        <f>SUM(O84:W84)</f>
         <v>1</v>
       </c>
       <c r="Q84" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF(ISBLANK(Y84), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T84" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -5958,35 +5997,23 @@
         <v>202</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K85" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="L85" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>402</v>
+        <f>SUM(O85:W85)</f>
+        <v>1</v>
       </c>
       <c r="Q85" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y85), "", 1)</f>
         <v/>
       </c>
       <c r="T85" s="4">
@@ -5998,24 +6025,24 @@
         <v>202</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>50</v>
+        <v>455</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P86" s="4">
+        <f>SUM(O86:W86)</f>
         <v>1</v>
       </c>
       <c r="Q86" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF(ISBLANK(Y86), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T86" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6023,27 +6050,24 @@
         <v>202</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O87:W87)</f>
+        <v>1</v>
+      </c>
+      <c r="O87" s="4">
         <v>1</v>
       </c>
       <c r="Q87" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T87" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y87), "", 1)</f>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6051,27 +6075,24 @@
         <v>202</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>444</v>
+        <v>50</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O88:W88)</f>
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
         <v>1</v>
       </c>
       <c r="Q88" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T88" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y88), "", 1)</f>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6079,64 +6100,55 @@
         <v>202</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>415</v>
+        <v>50</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>414</v>
+        <v>275</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K89" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L89" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="M89" s="23" t="s">
-        <v>394</v>
+        <f>SUM(O89:W89)</f>
+        <v>1</v>
       </c>
       <c r="Q89" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S89" s="4">
+        <f>IF(ISBLANK(Y89), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T89" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="4" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>229</v>
+        <v>434</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="P90" s="4">
+        <f>SUM(O90:W90)</f>
         <v>1</v>
       </c>
       <c r="Q90" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF(ISBLANK(Y90), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T90" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6144,24 +6156,27 @@
         <v>48</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>380</v>
+        <v>229</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O91:W91)</f>
+        <v>1</v>
+      </c>
+      <c r="P91" s="4">
         <v>1</v>
       </c>
       <c r="Q91" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="W91" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y91), "", 1)</f>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6169,20 +6184,20 @@
         <v>48</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>97</v>
+        <v>44</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O92:W92)</f>
         <v>1</v>
       </c>
       <c r="Q92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y92), "", 1)</f>
         <v/>
       </c>
       <c r="W92" s="4">
@@ -6194,38 +6209,23 @@
         <v>48</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>459</v>
+        <v>97</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="L93" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M93" s="23" t="s">
-        <v>56</v>
+        <f>SUM(O93:W93)</f>
+        <v>1</v>
       </c>
       <c r="Q93" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T93" s="4">
+        <f>IF(ISBLANK(Y93), "", 1)</f>
+        <v/>
+      </c>
+      <c r="W93" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6243,11 +6243,11 @@
         <v>128</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O94:W94)</f>
         <v>1</v>
       </c>
       <c r="Q94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y94), "", 1)</f>
         <v/>
       </c>
       <c r="W94" s="4">
@@ -6268,14 +6268,14 @@
         <v>288</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O95:W95)</f>
         <v>1</v>
       </c>
       <c r="O95" s="4">
         <v>1</v>
       </c>
       <c r="Q95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y95), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6293,11 +6293,11 @@
         <v>64</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O96:W96)</f>
         <v>1</v>
       </c>
       <c r="Q96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y96), "", 1)</f>
         <v/>
       </c>
       <c r="V96" s="4">
@@ -6318,14 +6318,14 @@
         <v>347</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(O97:W97)</f>
         <v>1</v>
       </c>
       <c r="O97" s="4">
         <v>1</v>
       </c>
       <c r="Q97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(Y97), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6343,11 +6343,11 @@
         <v>367</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" ref="G98:G129" si="6">SUM(O98:W98)</f>
+        <f>SUM(O98:W98)</f>
         <v>1</v>
       </c>
       <c r="Q98" s="4" t="str">
-        <f t="shared" ref="Q98:Q120" si="7">IF(ISBLANK(Y98), "", 1)</f>
+        <f>IF(ISBLANK(Y98), "", 1)</f>
         <v/>
       </c>
       <c r="R98" s="4">
@@ -6368,14 +6368,14 @@
         <v>40</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O99:W99)</f>
         <v>1</v>
       </c>
       <c r="O99" s="4">
         <v>1</v>
       </c>
       <c r="Q99" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y99), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
         <v>77</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O100:W100)</f>
         <v>1</v>
       </c>
       <c r="Q100" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y100), "", 1)</f>
         <v/>
       </c>
       <c r="V100" s="4">
@@ -6418,11 +6418,11 @@
         <v>121</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O101:W101)</f>
         <v>1</v>
       </c>
       <c r="Q101" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y101), "", 1)</f>
         <v/>
       </c>
       <c r="W101" s="4">
@@ -6443,11 +6443,11 @@
         <v>104</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O102:W102)</f>
         <v>1</v>
       </c>
       <c r="Q102" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y102), "", 1)</f>
         <v/>
       </c>
       <c r="W102" s="4">
@@ -6471,11 +6471,11 @@
         <v>125</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O103:W103)</f>
         <v>1</v>
       </c>
       <c r="Q103" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y103), "", 1)</f>
         <v/>
       </c>
       <c r="W103" s="4">
@@ -6496,14 +6496,14 @@
         <v>306</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O104:W104)</f>
         <v>1</v>
       </c>
       <c r="O104" s="4">
         <v>1</v>
       </c>
       <c r="Q104" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y104), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6521,11 +6521,11 @@
         <v>334</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O105:W105)</f>
         <v>1</v>
       </c>
       <c r="Q105" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y105), "", 1)</f>
         <v/>
       </c>
       <c r="V105" s="4">
@@ -6546,14 +6546,14 @@
         <v>343</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O106:W106)</f>
         <v>1</v>
       </c>
       <c r="P106" s="4">
         <v>1</v>
       </c>
       <c r="Q106" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y106), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6571,14 +6571,14 @@
         <v>252</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O107:W107)</f>
         <v>1</v>
       </c>
       <c r="P107" s="4">
         <v>1</v>
       </c>
       <c r="Q107" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y107), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6596,11 +6596,11 @@
         <v>375</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O108:W108)</f>
         <v>1</v>
       </c>
       <c r="Q108" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y108), "", 1)</f>
         <v/>
       </c>
       <c r="R108" s="4">
@@ -6621,11 +6621,11 @@
         <v>331</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O109:W109)</f>
         <v>1</v>
       </c>
       <c r="Q109" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y109), "", 1)</f>
         <v/>
       </c>
       <c r="T109" s="4">
@@ -6643,11 +6643,11 @@
         <v>338</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O110:W110)</f>
         <v>1</v>
       </c>
       <c r="Q110" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y110), "", 1)</f>
         <v/>
       </c>
       <c r="T110" s="4">
@@ -6656,117 +6656,127 @@
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="4" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>92</v>
+        <v>511</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O111:W111)</f>
         <v>0</v>
       </c>
-      <c r="Q111" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="H111" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L111" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="4" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>208</v>
+        <v>509</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O112:W112)</f>
         <v>0</v>
       </c>
-      <c r="Q112" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="K112" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="L112" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="4" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>203</v>
+        <v>384</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O113:W113)</f>
         <v>0</v>
       </c>
       <c r="Q113" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y113), "", 1)</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="4" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>379</v>
+        <v>208</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O114:W114)</f>
         <v>0</v>
       </c>
-      <c r="O114" s="4">
-        <v>-1</v>
-      </c>
       <c r="Q114" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T114" s="4">
-        <v>1</v>
+        <f>IF(ISBLANK(Y114), "", 1)</f>
+        <v/>
       </c>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O115:W115)</f>
         <v>0</v>
       </c>
       <c r="Q115" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y115), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6775,48 +6785,48 @@
         <v>202</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>455</v>
+        <v>149</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O116:W116)</f>
         <v>0</v>
       </c>
+      <c r="O116" s="4">
+        <v>-1</v>
+      </c>
       <c r="Q116" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(ISBLANK(Y116), "", 1)</f>
+        <v/>
+      </c>
+      <c r="T116" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O117:W117)</f>
         <v>0</v>
       </c>
       <c r="Q117" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y117), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6825,20 +6835,23 @@
         <v>202</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>298</v>
+        <v>455</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>297</v>
+        <v>245</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O118:W118)</f>
         <v>0</v>
       </c>
       <c r="Q118" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y118), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6847,20 +6860,23 @@
         <v>202</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>457</v>
+        <v>255</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>234</v>
+        <v>254</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O119:W119)</f>
         <v>0</v>
       </c>
       <c r="Q119" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y119), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6869,23 +6885,20 @@
         <v>202</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>428</v>
+        <v>297</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O120:W120)</f>
         <v>0</v>
       </c>
       <c r="Q120" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK(Y120), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6894,29 +6907,21 @@
         <v>202</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>226</v>
+        <v>457</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>510</v>
+        <v>233</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O121:W121)</f>
         <v>0</v>
       </c>
-      <c r="K121" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="L121" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="M121" s="23" t="s">
-        <v>82</v>
+      <c r="Q121" s="4" t="str">
+        <f>IF(ISBLANK(Y121), "", 1)</f>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -6924,29 +6929,24 @@
         <v>202</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>434</v>
+        <v>219</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>513</v>
+        <v>426</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>512</v>
+        <v>428</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O122:W122)</f>
         <v>0</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L122" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M122" s="23" t="s">
-        <v>82</v>
+      <c r="Q122" s="4" t="str">
+        <f>IF(ISBLANK(Y122), "", 1)</f>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -6966,7 +6966,7 @@
         <v>295</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O123:W123)</f>
         <v>0</v>
       </c>
       <c r="Q123" s="4" t="str">
@@ -6991,7 +6991,7 @@
         <v>271</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O124:W124)</f>
         <v>0</v>
       </c>
       <c r="Q124" s="4" t="str">
@@ -7016,7 +7016,7 @@
         <v>66</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O125:W125)</f>
         <v>0</v>
       </c>
       <c r="Q125" s="4" t="str">
@@ -7038,7 +7038,7 @@
         <v>506</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O126:W126)</f>
         <v>0</v>
       </c>
       <c r="Y126" t="s">
@@ -7062,11 +7062,11 @@
         <v>217</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O127:W127)</f>
         <v>0</v>
       </c>
       <c r="Q127" s="4" t="str">
-        <f t="shared" ref="Q127:Q139" si="8">IF(ISBLANK(Y127), "", 1)</f>
+        <f>IF(ISBLANK(Y127), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7084,11 +7084,11 @@
         <v>263</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O128:W128)</f>
         <v>0</v>
       </c>
       <c r="Q128" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y128), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7106,11 +7106,11 @@
         <v>324</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="6"/>
+        <f>SUM(O129:W129)</f>
         <v>0</v>
       </c>
       <c r="Q129" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y129), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7128,11 +7128,11 @@
         <v>328</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" ref="G130:G139" si="9">SUM(O130:W130)</f>
+        <f>SUM(O130:W130)</f>
         <v>0</v>
       </c>
       <c r="Q130" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y130), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7150,11 +7150,11 @@
         <v>345</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O131:W131)</f>
         <v>0</v>
       </c>
       <c r="Q131" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y131), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7169,11 +7169,11 @@
         <v>340</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O132:W132)</f>
         <v>0</v>
       </c>
       <c r="Q132" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y132), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7191,11 +7191,11 @@
         <v>320</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O133:W133)</f>
         <v>0</v>
       </c>
       <c r="Q133" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y133), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7210,11 +7210,11 @@
         <v>200</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O134:W134)</f>
         <v>0</v>
       </c>
       <c r="Q134" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y134), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7229,11 +7229,11 @@
         <v>381</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O135:W135)</f>
         <v>0</v>
       </c>
       <c r="Q135" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y135), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
         <v>310</v>
       </c>
       <c r="G136" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O136:W136)</f>
         <v>0</v>
       </c>
       <c r="Q136" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y136), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7270,11 +7270,11 @@
         <v>301</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O137:W137)</f>
         <v>0</v>
       </c>
       <c r="Q137" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y137), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7289,11 +7289,11 @@
         <v>292</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O138:W138)</f>
         <v>0</v>
       </c>
       <c r="Q138" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y138), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7308,11 +7308,11 @@
         <v>336</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(O139:W139)</f>
         <v>0</v>
       </c>
       <c r="Q139" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK(Y139), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7331,8 +7331,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB50">
-    <sortCondition ref="A3:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB142">
+    <sortCondition descending="1" ref="G2:G142"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7342,7 +7342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8825AA-A5AA-EB48-96DA-617D57988EAB}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/native_garden.xlsx
+++ b/native_garden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisedgemon/repos/planting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chirs/repos/planting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2DFCEA-FD4B-6C45-8EFB-697958CD2718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAAD40-A3D8-5F46-BA4C-52F38035EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="480" windowWidth="25440" windowHeight="14120" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD367B52-4A65-FE4D-B97C-D9C08B69CC5F}">
   <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2336,7 +2336,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(O2:W2)</f>
+        <f t="shared" ref="G2:G33" si="0">SUM(O2:W2)</f>
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="4">
-        <f>IF(ISBLANK(Y2), "", 1)</f>
+        <f t="shared" ref="Q2:Q33" si="1">IF(ISBLANK(Y2), "", 1)</f>
         <v>1</v>
       </c>
       <c r="R2" s="4">
@@ -2391,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="G3" s="4">
-        <f>SUM(O3:W3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4">
-        <f>IF(ISBLANK(Y3), "", 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R3" s="4">
@@ -2446,7 +2446,7 @@
         <v>75</v>
       </c>
       <c r="G4" s="4">
-        <f>SUM(O4:W4)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>IF(ISBLANK(Y4), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S4" s="4">
@@ -2504,7 +2504,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="4">
-        <f>SUM(O5:W5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f>IF(ISBLANK(Y5), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S5" s="4">
@@ -2556,7 +2556,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(O6:W6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -2572,7 +2572,7 @@
         <v>57</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>IF(ISBLANK(Y6), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R6" s="4">
@@ -2611,7 +2611,7 @@
         <v>88</v>
       </c>
       <c r="G7" s="4">
-        <f>SUM(O7:W7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>IF(ISBLANK(Y7), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S7" s="4">
@@ -2666,7 +2666,7 @@
         <v>391</v>
       </c>
       <c r="G8" s="4">
-        <f>SUM(O8:W8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>IF(ISBLANK(Y8), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R8" s="4">
@@ -2721,7 +2721,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(O9:W9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>IF(ISBLANK(Y9), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="4">
@@ -2773,7 +2773,7 @@
         <v>163</v>
       </c>
       <c r="G10" s="4">
-        <f>SUM(O10:W10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>IF(ISBLANK(Y10), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U10" s="4">
@@ -2825,7 +2825,7 @@
         <v>143</v>
       </c>
       <c r="G11" s="4">
-        <f>SUM(O11:W11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -2841,7 +2841,7 @@
         <v>393</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>IF(ISBLANK(Y11), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R11" s="4">
@@ -2874,7 +2874,7 @@
         <v>138</v>
       </c>
       <c r="G12" s="4">
-        <f>SUM(O12:W12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -2890,7 +2890,7 @@
         <v>393</v>
       </c>
       <c r="Q12" s="4">
-        <f>IF(ISBLANK(Y12), "", 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R12" s="4">
@@ -2923,7 +2923,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="4">
-        <f>SUM(O13:W13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>IF(ISBLANK(Y13), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S13" s="4">
@@ -2972,7 +2972,7 @@
         <v>141</v>
       </c>
       <c r="G14" s="4">
-        <f>SUM(O14:W14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2988,7 +2988,7 @@
         <v>56</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>IF(ISBLANK(Y14), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R14" s="4">
@@ -3018,7 +3018,7 @@
         <v>369</v>
       </c>
       <c r="G15" s="4">
-        <f>SUM(O15:W15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3034,7 +3034,7 @@
         <v>56</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>IF(ISBLANK(Y15), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R15" s="4">
@@ -3067,7 +3067,7 @@
         <v>80</v>
       </c>
       <c r="G16" s="4">
-        <f>SUM(O16:W16)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3085,7 +3085,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="8"/>
       <c r="Q16" s="4" t="str">
-        <f>IF(ISBLANK(Y16), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S16" s="4">
@@ -3115,7 +3115,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="4">
-        <f>SUM(O17:W17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3134,7 +3134,7 @@
         <v>528</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>IF(ISBLANK(Y17), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S17" s="4">
@@ -3167,7 +3167,7 @@
         <v>136</v>
       </c>
       <c r="G18" s="4">
-        <f>SUM(O18:W18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f>IF(ISBLANK(Y18), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R18" s="4">
@@ -3213,7 +3213,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="4">
-        <f>SUM(O19:W19)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f>IF(ISBLANK(Y19), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S19" s="4">
@@ -3262,7 +3262,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="4">
-        <f>SUM(O20:W20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3278,7 +3278,7 @@
         <v>393</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f>IF(ISBLANK(Y20), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R20" s="4">
@@ -3311,7 +3311,7 @@
         <v>161</v>
       </c>
       <c r="G21" s="4">
-        <f>SUM(O21:W21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3330,7 +3330,7 @@
         <v>-1</v>
       </c>
       <c r="Q21" s="4" t="str">
-        <f>IF(ISBLANK(Y21), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R21" s="4">
@@ -3366,7 +3366,7 @@
         <v>224</v>
       </c>
       <c r="G22" s="4">
-        <f>SUM(O22:W22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="4">
-        <f>IF(ISBLANK(Y22), "", 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S22" s="4">
@@ -3412,7 +3412,7 @@
         <v>175</v>
       </c>
       <c r="G23" s="4">
-        <f>SUM(O23:W23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="str">
-        <f>IF(ISBLANK(Y23), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R23" s="4">
@@ -3461,7 +3461,7 @@
         <v>154</v>
       </c>
       <c r="G24" s="4">
-        <f>SUM(O24:W24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="4" t="str">
-        <f>IF(ISBLANK(Y24), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V24" s="4">
@@ -3507,7 +3507,7 @@
         <v>182</v>
       </c>
       <c r="G25" s="4">
-        <f>SUM(O25:W25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <f>IF(ISBLANK(Y25), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R25" s="4">
@@ -3553,7 +3553,7 @@
         <v>151</v>
       </c>
       <c r="G26" s="4">
-        <f>SUM(O26:W26)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="4" t="str">
-        <f>IF(ISBLANK(Y26), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R26" s="4">
@@ -3602,7 +3602,7 @@
         <v>531</v>
       </c>
       <c r="G27" s="4">
-        <f>SUM(O27:W27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f>IF(ISBLANK(Y27), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S27" s="4">
@@ -3651,7 +3651,7 @@
         <v>447</v>
       </c>
       <c r="G28" s="4">
-        <f>SUM(O28:W28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -3667,7 +3667,7 @@
         <v>57</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f>IF(ISBLANK(Y28), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U28" s="4">
@@ -3697,7 +3697,7 @@
         <v>529</v>
       </c>
       <c r="G29" s="4">
-        <f>SUM(O29:W29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="4">
-        <f>IF(ISBLANK(Y29), "", 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U29" s="4">
@@ -3746,7 +3746,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="4">
-        <f>SUM(O30:W30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -3762,7 +3762,7 @@
         <v>57</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f>IF(ISBLANK(Y30), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T30" s="4">
@@ -3792,7 +3792,7 @@
         <v>401</v>
       </c>
       <c r="G31" s="4">
-        <f>SUM(O31:W31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -3808,7 +3808,7 @@
         <v>57</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f>IF(ISBLANK(Y31), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R31" s="4">
@@ -3838,7 +3838,7 @@
         <v>132</v>
       </c>
       <c r="G32" s="4">
-        <f>SUM(O32:W32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -3854,7 +3854,7 @@
         <v>56</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <f>IF(ISBLANK(Y32), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S32" s="4">
@@ -3884,7 +3884,7 @@
         <v>436</v>
       </c>
       <c r="G33" s="4">
-        <f>SUM(O33:W33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -3900,7 +3900,7 @@
         <v>56</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f>IF(ISBLANK(Y33), "", 1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R33" s="4">
@@ -3927,7 +3927,7 @@
         <v>473</v>
       </c>
       <c r="G34" s="4">
-        <f>SUM(O34:W34)</f>
+        <f t="shared" ref="G34:G65" si="2">SUM(O34:W34)</f>
         <v>3</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -3943,7 +3943,7 @@
         <v>56</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f>IF(ISBLANK(Y34), "", 1)</f>
+        <f t="shared" ref="Q34:Q65" si="3">IF(ISBLANK(Y34), "", 1)</f>
         <v/>
       </c>
       <c r="S34" s="4">
@@ -3973,7 +3973,7 @@
         <v>189</v>
       </c>
       <c r="G35" s="4">
-        <f>SUM(O35:W35)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f>IF(ISBLANK(Y35), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R35" s="4">
@@ -4016,7 +4016,7 @@
         <v>115</v>
       </c>
       <c r="G36" s="4">
-        <f>SUM(O36:W36)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -4035,7 +4035,7 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <f>IF(ISBLANK(Y36), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S36" s="4">
@@ -4068,7 +4068,7 @@
         <v>522</v>
       </c>
       <c r="G37" s="4">
-        <f>SUM(O37:W37)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <f>IF(ISBLANK(Y37), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S37" s="4">
@@ -4120,7 +4120,7 @@
         <v>280</v>
       </c>
       <c r="G38" s="4">
-        <f>SUM(O38:W38)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -4139,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <f>IF(ISBLANK(Y38), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R38" s="4">
@@ -4163,7 +4163,7 @@
         <v>180</v>
       </c>
       <c r="G39" s="4">
-        <f>SUM(O39:W39)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <f>IF(ISBLANK(Y39), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R39" s="4">
@@ -4209,7 +4209,7 @@
         <v>463</v>
       </c>
       <c r="G40" s="4">
-        <f>SUM(O40:W40)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <f>IF(ISBLANK(Y40), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U40" s="4">
@@ -4255,7 +4255,7 @@
         <v>466</v>
       </c>
       <c r="G41" s="4">
-        <f>SUM(O41:W41)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f>IF(ISBLANK(Y41), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T41" s="4">
@@ -4301,7 +4301,7 @@
         <v>321</v>
       </c>
       <c r="G42" s="4">
-        <f>SUM(O42:W42)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="str">
-        <f>IF(ISBLANK(Y42), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U42" s="4">
@@ -4347,7 +4347,7 @@
         <v>419</v>
       </c>
       <c r="G43" s="4">
-        <f>SUM(O43:W43)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="str">
-        <f>IF(ISBLANK(Y43), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S43" s="4">
@@ -4393,7 +4393,7 @@
         <v>32</v>
       </c>
       <c r="G44" s="4">
-        <f>SUM(O44:W44)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -4415,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="str">
-        <f>IF(ISBLANK(Y44), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U44" s="4">
@@ -4442,7 +4442,7 @@
         <v>85</v>
       </c>
       <c r="G45" s="4">
-        <f>SUM(O45:W45)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <f>IF(ISBLANK(Y45), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V45" s="4">
@@ -4491,7 +4491,7 @@
         <v>36</v>
       </c>
       <c r="G46" s="4">
-        <f>SUM(O46:W46)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="4" t="str">
-        <f>IF(ISBLANK(Y46), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R46" s="4">
@@ -4537,7 +4537,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="4">
-        <f>SUM(O47:W47)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -4556,7 +4556,7 @@
         <v>393</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <f>IF(ISBLANK(Y47), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S47" s="4">
@@ -4586,7 +4586,7 @@
         <v>525</v>
       </c>
       <c r="G48" s="4">
-        <f>SUM(O48:W48)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="str">
-        <f>IF(ISBLANK(Y48), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S48" s="4">
@@ -4632,7 +4632,7 @@
         <v>172</v>
       </c>
       <c r="G49" s="4">
-        <f>SUM(O49:W49)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -4651,7 +4651,7 @@
         <v>-1</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <f>IF(ISBLANK(Y49), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R49" s="4">
@@ -4684,7 +4684,7 @@
         <v>530</v>
       </c>
       <c r="G50" s="4">
-        <f>SUM(O50:W50)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -4700,7 +4700,7 @@
         <v>399</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f>IF(ISBLANK(Y50), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S50" s="4">
@@ -4727,7 +4727,7 @@
         <v>187</v>
       </c>
       <c r="G51" s="4">
-        <f>SUM(O51:W51)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -4743,7 +4743,7 @@
         <v>57</v>
       </c>
       <c r="Q51" s="4" t="str">
-        <f>IF(ISBLANK(Y51), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R51" s="4">
@@ -4770,7 +4770,7 @@
         <v>315</v>
       </c>
       <c r="G52" s="4">
-        <f>SUM(O52:W52)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -4786,7 +4786,7 @@
         <v>57</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f>IF(ISBLANK(Y52), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S52" s="4">
@@ -4810,7 +4810,7 @@
         <v>155</v>
       </c>
       <c r="G53" s="4">
-        <f>SUM(O53:W53)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -4826,7 +4826,7 @@
         <v>57</v>
       </c>
       <c r="Q53" s="4" t="str">
-        <f>IF(ISBLANK(Y53), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R53" s="4">
@@ -4853,7 +4853,7 @@
         <v>469</v>
       </c>
       <c r="G54" s="4">
-        <f>SUM(O54:W54)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <f>IF(ISBLANK(Y54), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U54" s="4">
@@ -4896,7 +4896,7 @@
         <v>158</v>
       </c>
       <c r="G55" s="4">
-        <f>SUM(O55:W55)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <f>IF(ISBLANK(Y55), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W55" s="4">
@@ -4933,7 +4933,7 @@
         <v>72</v>
       </c>
       <c r="G56" s="4">
-        <f>SUM(O56:W56)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -4946,7 +4946,7 @@
         <v>57</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f>IF(ISBLANK(Y56), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S56" s="4">
@@ -4973,7 +4973,7 @@
         <v>446</v>
       </c>
       <c r="G57" s="4">
-        <f>SUM(O57:W57)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="str">
-        <f>IF(ISBLANK(Y57), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T57" s="4">
@@ -5016,7 +5016,7 @@
         <v>285</v>
       </c>
       <c r="G58" s="4">
-        <f>SUM(O58:W58)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <f>IF(ISBLANK(Y58), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R58" s="4">
@@ -5056,7 +5056,7 @@
         <v>400</v>
       </c>
       <c r="G59" s="4">
-        <f>SUM(O59:W59)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="4">
-        <f>IF(ISBLANK(Y59), "", 1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y59" t="s">
@@ -5090,7 +5090,7 @@
         <v>170</v>
       </c>
       <c r="G60" s="4">
-        <f>SUM(O60:W60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -5106,7 +5106,7 @@
         <v>56</v>
       </c>
       <c r="Q60" s="4" t="str">
-        <f>IF(ISBLANK(Y60), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R60" s="4">
@@ -5130,7 +5130,7 @@
         <v>471</v>
       </c>
       <c r="G61" s="4">
-        <f>SUM(O61:W61)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="4" t="str">
-        <f>IF(ISBLANK(Y61), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U61" s="4">
@@ -5173,7 +5173,7 @@
         <v>443</v>
       </c>
       <c r="G62" s="4">
-        <f>SUM(O62:W62)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -5192,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="str">
-        <f>IF(ISBLANK(Y62), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T62" s="4">
@@ -5213,7 +5213,7 @@
         <v>349</v>
       </c>
       <c r="G63" s="4">
-        <f>SUM(O63:W63)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -5229,7 +5229,7 @@
         <v>56</v>
       </c>
       <c r="Q63" s="4" t="str">
-        <f>IF(ISBLANK(Y63), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R63" s="4">
@@ -5256,7 +5256,7 @@
         <v>109</v>
       </c>
       <c r="G64" s="4">
-        <f>SUM(O64:W64)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="4" t="str">
-        <f>IF(ISBLANK(Y64), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W64" s="4">
@@ -5299,7 +5299,7 @@
         <v>99</v>
       </c>
       <c r="G65" s="4">
-        <f>SUM(O65:W65)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -5315,7 +5315,7 @@
         <v>56</v>
       </c>
       <c r="Q65" s="4" t="str">
-        <f>IF(ISBLANK(Y65), "", 1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S65" s="4">
@@ -5342,7 +5342,7 @@
         <v>449</v>
       </c>
       <c r="G66" s="4">
-        <f>SUM(O66:W66)</f>
+        <f t="shared" ref="G66:G97" si="4">SUM(O66:W66)</f>
         <v>2</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -5352,7 +5352,7 @@
         <v>56</v>
       </c>
       <c r="Q66" s="4" t="str">
-        <f>IF(ISBLANK(Y66), "", 1)</f>
+        <f t="shared" ref="Q66:Q97" si="5">IF(ISBLANK(Y66), "", 1)</f>
         <v/>
       </c>
       <c r="R66" s="4">
@@ -5376,7 +5376,7 @@
         <v>247</v>
       </c>
       <c r="G67" s="4">
-        <f>SUM(O67:W67)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="4" t="str">
-        <f>IF(ISBLANK(Y67), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
         <v>412</v>
       </c>
       <c r="G68" s="4">
-        <f>SUM(O68:W68)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="4" t="str">
-        <f>IF(ISBLANK(Y68), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S68" s="4">
@@ -5459,7 +5459,7 @@
         <v>118</v>
       </c>
       <c r="G69" s="4">
-        <f>SUM(O69:W69)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="4" t="str">
-        <f>IF(ISBLANK(Y69), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W69" s="4">
@@ -5502,7 +5502,7 @@
         <v>370</v>
       </c>
       <c r="G70" s="4">
-        <f>SUM(O70:W70)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H70" s="4" t="s">
@@ -5518,7 +5518,7 @@
         <v>393</v>
       </c>
       <c r="Q70" s="4" t="str">
-        <f>IF(ISBLANK(Y70), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R70" s="4">
@@ -5542,7 +5542,7 @@
         <v>482</v>
       </c>
       <c r="G71" s="4">
-        <f>SUM(O71:W71)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="4" t="str">
-        <f>IF(ISBLANK(Y71), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U71" s="4">
@@ -5585,7 +5585,7 @@
         <v>445</v>
       </c>
       <c r="G72" s="4">
-        <f>SUM(O72:W72)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="4" t="str">
-        <f>IF(ISBLANK(Y72), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T72" s="4">
@@ -5628,7 +5628,7 @@
         <v>222</v>
       </c>
       <c r="G73" s="4">
-        <f>SUM(O73:W73)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -5644,7 +5644,7 @@
         <v>399</v>
       </c>
       <c r="Q73" s="4" t="str">
-        <f>IF(ISBLANK(Y73), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T73" s="4">
@@ -5668,11 +5668,11 @@
         <v>365</v>
       </c>
       <c r="G74" s="4">
-        <f>SUM(O74:W74)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q74" s="4" t="str">
-        <f>IF(ISBLANK(Y74), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R74" s="4">
@@ -5699,7 +5699,7 @@
         <v>232</v>
       </c>
       <c r="G75" s="4">
-        <f>SUM(O75:W75)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -5715,7 +5715,7 @@
         <v>402</v>
       </c>
       <c r="Q75" s="4" t="str">
-        <f>IF(ISBLANK(Y75), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T75" s="4">
@@ -5736,7 +5736,7 @@
         <v>414</v>
       </c>
       <c r="G76" s="4">
-        <f>SUM(O76:W76)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -5752,7 +5752,7 @@
         <v>56</v>
       </c>
       <c r="Q76" s="4" t="str">
-        <f>IF(ISBLANK(Y76), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S76" s="4">
@@ -5776,7 +5776,7 @@
         <v>459</v>
       </c>
       <c r="G77" s="4">
-        <f>SUM(O77:W77)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H77" s="4" t="s">
@@ -5792,7 +5792,7 @@
         <v>56</v>
       </c>
       <c r="Q77" s="4" t="str">
-        <f>IF(ISBLANK(Y77), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T77" s="4">
@@ -5813,7 +5813,7 @@
         <v>277</v>
       </c>
       <c r="G78" s="4">
-        <f>SUM(O78:W78)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="4" t="str">
-        <f>IF(ISBLANK(Y78), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5850,11 +5850,11 @@
         <v>359</v>
       </c>
       <c r="G79" s="4">
-        <f>SUM(O79:W79)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q79" s="4" t="str">
-        <f>IF(ISBLANK(Y79), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V79" s="4">
@@ -5875,11 +5875,11 @@
         <v>357</v>
       </c>
       <c r="G80" s="4">
-        <f>SUM(O80:W80)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q80" s="4" t="str">
-        <f>IF(ISBLANK(Y80), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R80" s="4">
@@ -5900,11 +5900,11 @@
         <v>355</v>
       </c>
       <c r="G81" s="4">
-        <f>SUM(O81:W81)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q81" s="4" t="str">
-        <f>IF(ISBLANK(Y81), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R81" s="4">
@@ -5925,11 +5925,11 @@
         <v>139</v>
       </c>
       <c r="G82" s="4">
-        <f>SUM(O82:W82)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q82" s="4" t="str">
-        <f>IF(ISBLANK(Y82), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W82" s="4">
@@ -5953,11 +5953,11 @@
         <v>240</v>
       </c>
       <c r="G83" s="4">
-        <f>SUM(O83:W83)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q83" s="4" t="str">
-        <f>IF(ISBLANK(Y83), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T83" s="4">
@@ -5981,11 +5981,11 @@
         <v>212</v>
       </c>
       <c r="G84" s="4">
-        <f>SUM(O84:W84)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q84" s="4" t="str">
-        <f>IF(ISBLANK(Y84), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T84" s="4">
@@ -6009,11 +6009,11 @@
         <v>259</v>
       </c>
       <c r="G85" s="4">
-        <f>SUM(O85:W85)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q85" s="4" t="str">
-        <f>IF(ISBLANK(Y85), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T85" s="4">
@@ -6034,11 +6034,11 @@
         <v>378</v>
       </c>
       <c r="G86" s="4">
-        <f>SUM(O86:W86)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q86" s="4" t="str">
-        <f>IF(ISBLANK(Y86), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T86" s="4">
@@ -6059,14 +6059,14 @@
         <v>290</v>
       </c>
       <c r="G87" s="4">
-        <f>SUM(O87:W87)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O87" s="4">
         <v>1</v>
       </c>
       <c r="Q87" s="4" t="str">
-        <f>IF(ISBLANK(Y87), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6084,14 +6084,14 @@
         <v>265</v>
       </c>
       <c r="G88" s="4">
-        <f>SUM(O88:W88)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P88" s="4">
         <v>1</v>
       </c>
       <c r="Q88" s="4" t="str">
-        <f>IF(ISBLANK(Y88), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6112,11 +6112,11 @@
         <v>274</v>
       </c>
       <c r="G89" s="4">
-        <f>SUM(O89:W89)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q89" s="4" t="str">
-        <f>IF(ISBLANK(Y89), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T89" s="4">
@@ -6140,11 +6140,11 @@
         <v>444</v>
       </c>
       <c r="G90" s="4">
-        <f>SUM(O90:W90)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q90" s="4" t="str">
-        <f>IF(ISBLANK(Y90), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T90" s="4">
@@ -6168,14 +6168,14 @@
         <v>230</v>
       </c>
       <c r="G91" s="4">
-        <f>SUM(O91:W91)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P91" s="4">
         <v>1</v>
       </c>
       <c r="Q91" s="4" t="str">
-        <f>IF(ISBLANK(Y91), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6193,11 +6193,11 @@
         <v>380</v>
       </c>
       <c r="G92" s="4">
-        <f>SUM(O92:W92)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q92" s="4" t="str">
-        <f>IF(ISBLANK(Y92), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W92" s="4">
@@ -6218,11 +6218,11 @@
         <v>101</v>
       </c>
       <c r="G93" s="4">
-        <f>SUM(O93:W93)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q93" s="4" t="str">
-        <f>IF(ISBLANK(Y93), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W93" s="4">
@@ -6243,11 +6243,11 @@
         <v>128</v>
       </c>
       <c r="G94" s="4">
-        <f>SUM(O94:W94)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q94" s="4" t="str">
-        <f>IF(ISBLANK(Y94), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W94" s="4">
@@ -6268,14 +6268,14 @@
         <v>288</v>
       </c>
       <c r="G95" s="4">
-        <f>SUM(O95:W95)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O95" s="4">
         <v>1</v>
       </c>
       <c r="Q95" s="4" t="str">
-        <f>IF(ISBLANK(Y95), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6293,11 +6293,11 @@
         <v>64</v>
       </c>
       <c r="G96" s="4">
-        <f>SUM(O96:W96)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q96" s="4" t="str">
-        <f>IF(ISBLANK(Y96), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V96" s="4">
@@ -6318,14 +6318,14 @@
         <v>347</v>
       </c>
       <c r="G97" s="4">
-        <f>SUM(O97:W97)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O97" s="4">
         <v>1</v>
       </c>
       <c r="Q97" s="4" t="str">
-        <f>IF(ISBLANK(Y97), "", 1)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6343,11 +6343,11 @@
         <v>367</v>
       </c>
       <c r="G98" s="4">
-        <f>SUM(O98:W98)</f>
+        <f t="shared" ref="G98:G129" si="6">SUM(O98:W98)</f>
         <v>1</v>
       </c>
       <c r="Q98" s="4" t="str">
-        <f>IF(ISBLANK(Y98), "", 1)</f>
+        <f t="shared" ref="Q98:Q110" si="7">IF(ISBLANK(Y98), "", 1)</f>
         <v/>
       </c>
       <c r="R98" s="4">
@@ -6368,14 +6368,14 @@
         <v>40</v>
       </c>
       <c r="G99" s="4">
-        <f>SUM(O99:W99)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O99" s="4">
         <v>1</v>
       </c>
       <c r="Q99" s="4" t="str">
-        <f>IF(ISBLANK(Y99), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6393,11 +6393,11 @@
         <v>77</v>
       </c>
       <c r="G100" s="4">
-        <f>SUM(O100:W100)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q100" s="4" t="str">
-        <f>IF(ISBLANK(Y100), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V100" s="4">
@@ -6418,11 +6418,11 @@
         <v>121</v>
       </c>
       <c r="G101" s="4">
-        <f>SUM(O101:W101)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q101" s="4" t="str">
-        <f>IF(ISBLANK(Y101), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W101" s="4">
@@ -6443,11 +6443,11 @@
         <v>104</v>
       </c>
       <c r="G102" s="4">
-        <f>SUM(O102:W102)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q102" s="4" t="str">
-        <f>IF(ISBLANK(Y102), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W102" s="4">
@@ -6471,11 +6471,11 @@
         <v>125</v>
       </c>
       <c r="G103" s="4">
-        <f>SUM(O103:W103)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q103" s="4" t="str">
-        <f>IF(ISBLANK(Y103), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W103" s="4">
@@ -6496,14 +6496,14 @@
         <v>306</v>
       </c>
       <c r="G104" s="4">
-        <f>SUM(O104:W104)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O104" s="4">
         <v>1</v>
       </c>
       <c r="Q104" s="4" t="str">
-        <f>IF(ISBLANK(Y104), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6521,11 +6521,11 @@
         <v>334</v>
       </c>
       <c r="G105" s="4">
-        <f>SUM(O105:W105)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q105" s="4" t="str">
-        <f>IF(ISBLANK(Y105), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V105" s="4">
@@ -6546,14 +6546,14 @@
         <v>343</v>
       </c>
       <c r="G106" s="4">
-        <f>SUM(O106:W106)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P106" s="4">
         <v>1</v>
       </c>
       <c r="Q106" s="4" t="str">
-        <f>IF(ISBLANK(Y106), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6571,14 +6571,14 @@
         <v>252</v>
       </c>
       <c r="G107" s="4">
-        <f>SUM(O107:W107)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P107" s="4">
         <v>1</v>
       </c>
       <c r="Q107" s="4" t="str">
-        <f>IF(ISBLANK(Y107), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6596,11 +6596,11 @@
         <v>375</v>
       </c>
       <c r="G108" s="4">
-        <f>SUM(O108:W108)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q108" s="4" t="str">
-        <f>IF(ISBLANK(Y108), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R108" s="4">
@@ -6621,11 +6621,11 @@
         <v>331</v>
       </c>
       <c r="G109" s="4">
-        <f>SUM(O109:W109)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q109" s="4" t="str">
-        <f>IF(ISBLANK(Y109), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T109" s="4">
@@ -6643,11 +6643,11 @@
         <v>338</v>
       </c>
       <c r="G110" s="4">
-        <f>SUM(O110:W110)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q110" s="4" t="str">
-        <f>IF(ISBLANK(Y110), "", 1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T110" s="4">
@@ -6671,7 +6671,7 @@
         <v>512</v>
       </c>
       <c r="G111" s="4">
-        <f>SUM(O111:W111)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -6701,7 +6701,7 @@
         <v>510</v>
       </c>
       <c r="G112" s="4">
-        <f>SUM(O112:W112)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K112" s="23" t="s">
@@ -6728,11 +6728,11 @@
         <v>92</v>
       </c>
       <c r="G113" s="4">
-        <f>SUM(O113:W113)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q113" s="4" t="str">
-        <f>IF(ISBLANK(Y113), "", 1)</f>
+        <f t="shared" ref="Q113:Q125" si="8">IF(ISBLANK(Y113), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -6750,11 +6750,11 @@
         <v>208</v>
       </c>
       <c r="G114" s="4">
-        <f>SUM(O114:W114)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q114" s="4" t="str">
-        <f>IF(ISBLANK(Y114), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6772,11 +6772,11 @@
         <v>204</v>
       </c>
       <c r="G115" s="4">
-        <f>SUM(O115:W115)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q115" s="4" t="str">
-        <f>IF(ISBLANK(Y115), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6794,14 +6794,14 @@
         <v>379</v>
       </c>
       <c r="G116" s="4">
-        <f>SUM(O116:W116)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O116" s="4">
         <v>-1</v>
       </c>
       <c r="Q116" s="4" t="str">
-        <f>IF(ISBLANK(Y116), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T116" s="4">
@@ -6822,11 +6822,11 @@
         <v>198</v>
       </c>
       <c r="G117" s="4">
-        <f>SUM(O117:W117)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q117" s="4" t="str">
-        <f>IF(ISBLANK(Y117), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6847,11 +6847,11 @@
         <v>244</v>
       </c>
       <c r="G118" s="4">
-        <f>SUM(O118:W118)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q118" s="4" t="str">
-        <f>IF(ISBLANK(Y118), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6872,11 +6872,11 @@
         <v>257</v>
       </c>
       <c r="G119" s="4">
-        <f>SUM(O119:W119)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q119" s="4" t="str">
-        <f>IF(ISBLANK(Y119), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6894,11 +6894,11 @@
         <v>297</v>
       </c>
       <c r="G120" s="4">
-        <f>SUM(O120:W120)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q120" s="4" t="str">
-        <f>IF(ISBLANK(Y120), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6916,11 +6916,11 @@
         <v>234</v>
       </c>
       <c r="G121" s="4">
-        <f>SUM(O121:W121)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q121" s="4" t="str">
-        <f>IF(ISBLANK(Y121), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6941,11 +6941,11 @@
         <v>428</v>
       </c>
       <c r="G122" s="4">
-        <f>SUM(O122:W122)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q122" s="4" t="str">
-        <f>IF(ISBLANK(Y122), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6966,11 +6966,11 @@
         <v>295</v>
       </c>
       <c r="G123" s="4">
-        <f>SUM(O123:W123)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q123" s="4" t="str">
-        <f>IF(ISBLANK(Y123), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -6991,11 +6991,11 @@
         <v>271</v>
       </c>
       <c r="G124" s="4">
-        <f>SUM(O124:W124)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q124" s="4" t="str">
-        <f>IF(ISBLANK(Y124), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7016,11 +7016,11 @@
         <v>66</v>
       </c>
       <c r="G125" s="4">
-        <f>SUM(O125:W125)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q125" s="4" t="str">
-        <f>IF(ISBLANK(Y125), "", 1)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7038,7 +7038,7 @@
         <v>506</v>
       </c>
       <c r="G126" s="4">
-        <f>SUM(O126:W126)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y126" t="s">
@@ -7062,11 +7062,11 @@
         <v>217</v>
       </c>
       <c r="G127" s="4">
-        <f>SUM(O127:W127)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q127" s="4" t="str">
-        <f>IF(ISBLANK(Y127), "", 1)</f>
+        <f t="shared" ref="Q127:Q139" si="9">IF(ISBLANK(Y127), "", 1)</f>
         <v/>
       </c>
     </row>
@@ -7084,11 +7084,11 @@
         <v>263</v>
       </c>
       <c r="G128" s="4">
-        <f>SUM(O128:W128)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q128" s="4" t="str">
-        <f>IF(ISBLANK(Y128), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7106,11 +7106,11 @@
         <v>324</v>
       </c>
       <c r="G129" s="4">
-        <f>SUM(O129:W129)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q129" s="4" t="str">
-        <f>IF(ISBLANK(Y129), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7128,11 +7128,11 @@
         <v>328</v>
       </c>
       <c r="G130" s="4">
-        <f>SUM(O130:W130)</f>
+        <f t="shared" ref="G130:G139" si="10">SUM(O130:W130)</f>
         <v>0</v>
       </c>
       <c r="Q130" s="4" t="str">
-        <f>IF(ISBLANK(Y130), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7150,11 +7150,11 @@
         <v>345</v>
       </c>
       <c r="G131" s="4">
-        <f>SUM(O131:W131)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q131" s="4" t="str">
-        <f>IF(ISBLANK(Y131), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7169,11 +7169,11 @@
         <v>340</v>
       </c>
       <c r="G132" s="4">
-        <f>SUM(O132:W132)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q132" s="4" t="str">
-        <f>IF(ISBLANK(Y132), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7191,11 +7191,11 @@
         <v>320</v>
       </c>
       <c r="G133" s="4">
-        <f>SUM(O133:W133)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q133" s="4" t="str">
-        <f>IF(ISBLANK(Y133), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7210,11 +7210,11 @@
         <v>200</v>
       </c>
       <c r="G134" s="4">
-        <f>SUM(O134:W134)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q134" s="4" t="str">
-        <f>IF(ISBLANK(Y134), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7229,11 +7229,11 @@
         <v>381</v>
       </c>
       <c r="G135" s="4">
-        <f>SUM(O135:W135)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q135" s="4" t="str">
-        <f>IF(ISBLANK(Y135), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7248,11 +7248,11 @@
         <v>310</v>
       </c>
       <c r="G136" s="4">
-        <f>SUM(O136:W136)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q136" s="4" t="str">
-        <f>IF(ISBLANK(Y136), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7270,11 +7270,11 @@
         <v>301</v>
       </c>
       <c r="G137" s="4">
-        <f>SUM(O137:W137)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q137" s="4" t="str">
-        <f>IF(ISBLANK(Y137), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7289,11 +7289,11 @@
         <v>292</v>
       </c>
       <c r="G138" s="4">
-        <f>SUM(O138:W138)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q138" s="4" t="str">
-        <f>IF(ISBLANK(Y138), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7308,11 +7308,11 @@
         <v>336</v>
       </c>
       <c r="G139" s="4">
-        <f>SUM(O139:W139)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q139" s="4" t="str">
-        <f>IF(ISBLANK(Y139), "", 1)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>

--- a/native_garden.xlsx
+++ b/native_garden.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chirs/repos/planting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAAD40-A3D8-5F46-BA4C-52F38035EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A4696-50DE-B94C-8F65-05C99C8FF74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{15BA4F13-2581-9841-A9DF-6B3D6C84267C}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
-    <sheet name="families" sheetId="2" r:id="rId2"/>
-    <sheet name="references" sheetId="3" r:id="rId3"/>
+    <sheet name="planted" sheetId="4" r:id="rId2"/>
+    <sheet name="families" sheetId="2" r:id="rId3"/>
+    <sheet name="references" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="569">
   <si>
     <t>Southern blackhaw</t>
   </si>
@@ -1699,12 +1700,165 @@
   <si>
     <t>Cherry salvia</t>
   </si>
+  <si>
+    <r>
+      <t>Cercis canadensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF58585A"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF58585A"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>mexicana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Anisacanthus quadrifidus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF58585A"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF58585A"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>wrightii</t>
+    </r>
+  </si>
+  <si>
+    <t>Blackhaw viburnum</t>
+  </si>
+  <si>
+    <t>Reverchon's False Pennyroyal</t>
+  </si>
+  <si>
+    <t>Mealy blue sage</t>
+  </si>
+  <si>
+    <t>Stiff greenthread</t>
+  </si>
+  <si>
+    <t>Yellow wild indigo</t>
+  </si>
+  <si>
+    <t>Texas bluebell</t>
+  </si>
+  <si>
+    <t>Baldwin's Ironweed</t>
+  </si>
+  <si>
+    <t>Vernonia baldwinii</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Cedar sage</t>
+  </si>
+  <si>
+    <t>Chocolate Daisy</t>
+  </si>
+  <si>
+    <t>Plains Coreopsis</t>
+  </si>
+  <si>
+    <t>Mexican hat (Upright Prairie Coneflower)</t>
+  </si>
+  <si>
+    <t>Eastern Redbud</t>
+  </si>
+  <si>
+    <t>Cercis canadensis</t>
+  </si>
+  <si>
+    <t>Poverty Weed (False willow)</t>
+  </si>
+  <si>
+    <t>Mexican Buckeye</t>
+  </si>
+  <si>
+    <t>Ugnadia Speciosa</t>
+  </si>
+  <si>
+    <t>Hedeoma reverchonii</t>
+  </si>
+  <si>
+    <t>Thelesperma filifolium</t>
+  </si>
+  <si>
+    <t>Eustoma exaltatum ssp. Russellianum</t>
+  </si>
+  <si>
+    <t>Wild blue flax</t>
+  </si>
+  <si>
+    <t>Linum lewisii</t>
+  </si>
+  <si>
+    <t>Texas spiderwort</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1827,8 +1981,48 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF58585A"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF58585A"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,6 +2033,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE7CF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFA00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1873,7 +2109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1886,8 +2122,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1900,6 +2134,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1909,9 +2173,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFA00"/>
       <color rgb="FFFFE7CF"/>
       <color rgb="FFEEFFBF"/>
-      <color rgb="FFFFFA00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2222,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD367B52-4A65-FE4D-B97C-D9C08B69CC5F}">
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D45"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2240,9 +2504,9 @@
     <col min="8" max="8" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="11" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" style="4" customWidth="1"/>
     <col min="18" max="18" width="3" style="4" customWidth="1"/>
@@ -2251,74 +2515,74 @@
     <col min="29" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="12" customFormat="1" thickBot="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" thickBot="1">
+      <c r="A1" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="10" t="s">
         <v>501</v>
       </c>
     </row>
@@ -2329,7 +2593,7 @@
       <c r="B2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="23" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2342,13 +2606,13 @@
       <c r="H2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>56</v>
       </c>
       <c r="O2" s="4">
@@ -2384,7 +2648,7 @@
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="24" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -2397,13 +2661,13 @@
       <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>56</v>
       </c>
       <c r="O3" s="4">
@@ -2439,7 +2703,7 @@
       <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2455,13 +2719,13 @@
       <c r="I4" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O4" s="4">
@@ -2497,7 +2761,7 @@
       <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2510,13 +2774,13 @@
       <c r="H5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="21" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="4">
@@ -2549,7 +2813,7 @@
       <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2562,13 +2826,13 @@
       <c r="H6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q6" s="4" t="str">
@@ -2601,7 +2865,8 @@
       <c r="B7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2617,13 +2882,13 @@
       <c r="H7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="21" t="s">
         <v>402</v>
       </c>
       <c r="O7" s="4">
@@ -2675,13 +2940,13 @@
       <c r="I8" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O8" s="4">
@@ -2727,13 +2992,13 @@
       <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="21" t="s">
         <v>399</v>
       </c>
       <c r="P9" s="4">
@@ -2766,7 +3031,8 @@
       <c r="B10" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="23" t="s">
         <v>162</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2779,13 +3045,13 @@
       <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="21" t="s">
         <v>402</v>
       </c>
       <c r="O10" s="4">
@@ -2831,13 +3097,13 @@
       <c r="H11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="21" t="s">
         <v>393</v>
       </c>
       <c r="Q11" s="4" t="str">
@@ -2867,7 +3133,7 @@
       <c r="B12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2880,13 +3146,13 @@
       <c r="H12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="21" t="s">
         <v>393</v>
       </c>
       <c r="Q12" s="4">
@@ -2916,7 +3182,7 @@
       <c r="B13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2932,13 +3198,13 @@
       <c r="I13" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="21" t="s">
         <v>56</v>
       </c>
       <c r="O13" s="4">
@@ -2978,13 +3244,13 @@
       <c r="H14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q14" s="4" t="str">
@@ -3011,7 +3277,7 @@
       <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="23" t="s">
         <v>362</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -3024,13 +3290,13 @@
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q15" s="4" t="str">
@@ -3057,7 +3323,7 @@
       <c r="B16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -3073,13 +3339,13 @@
       <c r="H16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="21" t="s">
         <v>56</v>
       </c>
       <c r="N16" s="4"/>
@@ -3121,13 +3387,13 @@
       <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="21" t="s">
         <v>56</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -3173,13 +3439,13 @@
       <c r="H18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O18" s="4">
@@ -3206,7 +3472,7 @@
       <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -3219,13 +3485,13 @@
       <c r="H19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P19" s="4">
@@ -3268,13 +3534,13 @@
       <c r="H20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="21" t="s">
         <v>393</v>
       </c>
       <c r="Q20" s="4" t="str">
@@ -3301,7 +3567,7 @@
       <c r="B21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="23" t="s">
         <v>144</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -3317,13 +3583,13 @@
       <c r="H21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P21" s="4">
@@ -3356,7 +3622,7 @@
       <c r="B22" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="26" t="s">
         <v>223</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -3372,13 +3638,13 @@
       <c r="H22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O22" s="4">
@@ -3405,7 +3671,7 @@
       <c r="B23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="23" t="s">
         <v>174</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3418,13 +3684,13 @@
       <c r="H23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O23" s="4">
@@ -3451,7 +3717,7 @@
       <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="23" t="s">
         <v>153</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3467,13 +3733,13 @@
       <c r="H24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O24" s="4">
@@ -3500,7 +3766,8 @@
       <c r="B25" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="26" t="s">
         <v>181</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3513,13 +3780,13 @@
       <c r="H25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="21" t="s">
         <v>399</v>
       </c>
       <c r="O25" s="4">
@@ -3559,13 +3826,13 @@
       <c r="H26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="21" t="s">
         <v>399</v>
       </c>
       <c r="P26" s="4">
@@ -3592,7 +3859,7 @@
       <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3608,13 +3875,13 @@
       <c r="H27" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="21" t="s">
         <v>399</v>
       </c>
       <c r="O27" s="4">
@@ -3641,7 +3908,8 @@
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="26" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3657,13 +3925,13 @@
       <c r="H28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q28" s="4" t="str">
@@ -3687,7 +3955,7 @@
       <c r="B29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3706,13 +3974,13 @@
       <c r="I29" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="21" t="s">
         <v>57</v>
       </c>
       <c r="P29" s="4">
@@ -3736,7 +4004,8 @@
       <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="23" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -3752,13 +4021,13 @@
       <c r="H30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q30" s="4" t="str">
@@ -3782,7 +4051,7 @@
       <c r="B31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -3798,13 +4067,13 @@
       <c r="H31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q31" s="4" t="str">
@@ -3844,13 +4113,13 @@
       <c r="H32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q32" s="4" t="str">
@@ -3890,13 +4159,13 @@
       <c r="H33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="M33" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q33" s="4" t="str">
@@ -3920,7 +4189,7 @@
       <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -3933,13 +4202,13 @@
       <c r="H34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q34" s="4" t="str">
@@ -3979,13 +4248,13 @@
       <c r="H35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="M35" s="21" t="s">
         <v>56</v>
       </c>
       <c r="P35" s="4">
@@ -4022,13 +4291,13 @@
       <c r="H36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="21" t="s">
         <v>56</v>
       </c>
       <c r="O36" s="4">
@@ -4058,7 +4327,8 @@
       <c r="B37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="26" t="s">
         <v>521</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -4077,13 +4347,13 @@
       <c r="J37" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="21" t="s">
         <v>56</v>
       </c>
       <c r="N37" t="s">
@@ -4110,7 +4380,7 @@
       <c r="B38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="23" t="s">
         <v>176</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -4126,13 +4396,13 @@
       <c r="H38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="M38" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P38" s="4">
@@ -4156,7 +4426,7 @@
       <c r="B39" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="23" t="s">
         <v>179</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -4169,13 +4439,13 @@
       <c r="H39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O39" s="4">
@@ -4199,7 +4469,7 @@
       <c r="B40" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="23" t="s">
         <v>462</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -4215,13 +4485,13 @@
       <c r="H40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="L40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P40" s="4">
@@ -4245,7 +4515,7 @@
       <c r="B41" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="23" t="s">
         <v>464</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -4261,13 +4531,13 @@
       <c r="H41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="L41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="M41" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P41" s="4">
@@ -4291,7 +4561,7 @@
       <c r="B42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -4307,13 +4577,13 @@
       <c r="H42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L42" s="23" t="s">
+      <c r="L42" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M42" s="23" t="s">
+      <c r="M42" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P42" s="4">
@@ -4337,7 +4607,7 @@
       <c r="B43" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -4353,13 +4623,13 @@
       <c r="H43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="L43" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M43" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P43" s="4">
@@ -4402,13 +4672,13 @@
       <c r="I44" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K44" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L44" s="23" t="s">
+      <c r="L44" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="M44" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O44" s="4">
@@ -4432,7 +4702,7 @@
       <c r="B45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -4451,13 +4721,13 @@
       <c r="J45" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="K45" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L45" s="23" t="s">
+      <c r="L45" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M45" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O45" s="4">
@@ -4497,13 +4767,13 @@
       <c r="H46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="K46" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L46" s="23" t="s">
+      <c r="L46" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="M46" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P46" s="4">
@@ -4527,7 +4797,8 @@
       <c r="B47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -4546,13 +4817,13 @@
       <c r="I47" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K47" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="L47" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M47" s="23" t="s">
+      <c r="M47" s="21" t="s">
         <v>393</v>
       </c>
       <c r="Q47" s="4" t="str">
@@ -4576,7 +4847,7 @@
       <c r="B48" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -4592,13 +4863,13 @@
       <c r="H48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K48" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L48" s="23" t="s">
+      <c r="L48" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M48" s="23" t="s">
+      <c r="M48" s="21" t="s">
         <v>393</v>
       </c>
       <c r="N48" s="4" t="s">
@@ -4625,7 +4896,7 @@
       <c r="B49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -4638,13 +4909,13 @@
       <c r="H49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K49" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="L49" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="M49" s="23" t="s">
+      <c r="M49" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O49" s="4">
@@ -4690,13 +4961,13 @@
       <c r="H50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="K50" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L50" s="23" t="s">
+      <c r="L50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M50" s="23" t="s">
+      <c r="M50" s="21" t="s">
         <v>399</v>
       </c>
       <c r="Q50" s="4" t="str">
@@ -4733,13 +5004,13 @@
       <c r="H51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="K51" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L51" s="23" t="s">
+      <c r="L51" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M51" s="23" t="s">
+      <c r="M51" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q51" s="4" t="str">
@@ -4760,7 +5031,7 @@
       <c r="B52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="26" t="s">
         <v>313</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -4776,13 +5047,13 @@
       <c r="H52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K52" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L52" s="23" t="s">
+      <c r="L52" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M52" s="23" t="s">
+      <c r="M52" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q52" s="4" t="str">
@@ -4803,7 +5074,7 @@
       <c r="B53" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="26" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -4816,13 +5087,13 @@
       <c r="H53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="L53" s="23" t="s">
+      <c r="L53" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M53" s="23" t="s">
+      <c r="M53" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q53" s="4" t="str">
@@ -4859,13 +5130,13 @@
       <c r="H54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="K54" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="L54" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M54" s="23" t="s">
+      <c r="M54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="P54" s="4">
@@ -4886,7 +5157,7 @@
       <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="26" t="s">
         <v>159</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -4902,10 +5173,10 @@
       <c r="H55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L55" s="23" t="s">
+      <c r="L55" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M55" s="23" t="s">
+      <c r="M55" s="21" t="s">
         <v>57</v>
       </c>
       <c r="P55" s="4">
@@ -4939,10 +5210,10 @@
       <c r="H56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="L56" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M56" s="23" t="s">
+      <c r="M56" s="21" t="s">
         <v>57</v>
       </c>
       <c r="Q56" s="4" t="str">
@@ -4979,13 +5250,13 @@
       <c r="H57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="K57" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L57" s="23" t="s">
+      <c r="L57" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M57" s="23" t="s">
+      <c r="M57" s="21" t="s">
         <v>57</v>
       </c>
       <c r="P57" s="4">
@@ -5006,7 +5277,7 @@
       <c r="B58" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="23" t="s">
         <v>173</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -5022,13 +5293,13 @@
       <c r="H58" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="L58" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M58" s="23" t="s">
+      <c r="M58" s="21" t="s">
         <v>57</v>
       </c>
       <c r="O58" s="4">
@@ -5049,7 +5320,7 @@
       <c r="B59" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="26" t="s">
         <v>266</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -5062,7 +5333,7 @@
       <c r="H59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M59" s="23" t="s">
+      <c r="M59" s="21" t="s">
         <v>402</v>
       </c>
       <c r="P59" s="4">
@@ -5096,13 +5367,13 @@
       <c r="H60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L60" s="23" t="s">
+      <c r="L60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M60" s="23" t="s">
+      <c r="M60" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q60" s="4" t="str">
@@ -5123,7 +5394,8 @@
       <c r="B61" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="23" t="s">
         <v>470</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -5136,13 +5408,13 @@
       <c r="H61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K61" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="L61" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M61" s="23" t="s">
+      <c r="M61" s="21" t="s">
         <v>56</v>
       </c>
       <c r="P61" s="4">
@@ -5163,7 +5435,7 @@
       <c r="B62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="27" t="s">
         <v>441</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -5179,13 +5451,13 @@
       <c r="H62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L62" s="23" t="s">
+      <c r="L62" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M62" s="23" t="s">
+      <c r="M62" s="21" t="s">
         <v>56</v>
       </c>
       <c r="P62" s="4">
@@ -5219,13 +5491,13 @@
       <c r="H63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="K63" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L63" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M63" s="23" t="s">
+      <c r="M63" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q63" s="4" t="str">
@@ -5246,7 +5518,7 @@
       <c r="B64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="23" t="s">
         <v>106</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -5262,13 +5534,13 @@
       <c r="H64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K64" s="23" t="s">
+      <c r="K64" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L64" s="23" t="s">
+      <c r="L64" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M64" s="23" t="s">
+      <c r="M64" s="21" t="s">
         <v>56</v>
       </c>
       <c r="P64" s="4">
@@ -5305,13 +5577,13 @@
       <c r="H65" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L65" s="23" t="s">
+      <c r="L65" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M65" s="23" t="s">
+      <c r="M65" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q65" s="4" t="str">
@@ -5332,7 +5604,7 @@
       <c r="B66" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="23" t="s">
         <v>183</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -5348,7 +5620,7 @@
       <c r="H66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M66" s="23" t="s">
+      <c r="M66" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q66" s="4" t="str">
@@ -5369,7 +5641,7 @@
       <c r="B67" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="26" t="s">
         <v>246</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -5382,13 +5654,13 @@
       <c r="H67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K67" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L67" s="23" t="s">
+      <c r="L67" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M67" s="23" t="s">
+      <c r="M67" s="21" t="s">
         <v>393</v>
       </c>
       <c r="O67" s="4">
@@ -5409,7 +5681,7 @@
       <c r="B68" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="26" t="s">
         <v>209</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -5425,13 +5697,13 @@
       <c r="H68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="23" t="s">
+      <c r="K68" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L68" s="23" t="s">
+      <c r="L68" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="M68" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P68" s="4">
@@ -5452,7 +5724,7 @@
       <c r="B69" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="26" t="s">
         <v>114</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -5465,13 +5737,13 @@
       <c r="H69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K69" s="23" t="s">
+      <c r="K69" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L69" s="23" t="s">
+      <c r="L69" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M69" s="23" t="s">
+      <c r="M69" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P69" s="4">
@@ -5492,7 +5764,7 @@
       <c r="B70" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="23" t="s">
         <v>191</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -5508,13 +5780,13 @@
       <c r="H70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K70" s="23" t="s">
+      <c r="K70" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="L70" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M70" s="23" t="s">
+      <c r="M70" s="21" t="s">
         <v>393</v>
       </c>
       <c r="Q70" s="4" t="str">
@@ -5535,7 +5807,7 @@
       <c r="B71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="23" t="s">
         <v>284</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -5548,13 +5820,13 @@
       <c r="H71" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L71" s="23" t="s">
+      <c r="L71" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M71" s="23" t="s">
+      <c r="M71" s="21" t="s">
         <v>399</v>
       </c>
       <c r="O71" s="4">
@@ -5575,10 +5847,10 @@
       <c r="B72" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="11" t="s">
         <v>438</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -5591,13 +5863,13 @@
       <c r="H72" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K72" s="23" t="s">
+      <c r="K72" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="L72" s="23" t="s">
+      <c r="L72" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M72" s="23" t="s">
+      <c r="M72" s="21" t="s">
         <v>399</v>
       </c>
       <c r="P72" s="4">
@@ -5618,7 +5890,7 @@
       <c r="B73" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="26" t="s">
         <v>220</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -5634,13 +5906,13 @@
       <c r="H73" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K73" s="23" t="s">
+      <c r="K73" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L73" s="23" t="s">
+      <c r="L73" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="M73" s="23" t="s">
+      <c r="M73" s="21" t="s">
         <v>399</v>
       </c>
       <c r="Q73" s="4" t="str">
@@ -5661,7 +5933,7 @@
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="23" t="s">
         <v>364</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -5705,13 +5977,13 @@
       <c r="H75" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K75" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="L75" s="23" t="s">
+      <c r="L75" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="M75" s="23" t="s">
+      <c r="M75" s="21" t="s">
         <v>402</v>
       </c>
       <c r="Q75" s="4" t="str">
@@ -5742,13 +6014,13 @@
       <c r="H76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K76" s="23" t="s">
+      <c r="K76" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="L76" s="23" t="s">
+      <c r="L76" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="M76" s="23" t="s">
+      <c r="M76" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q76" s="4" t="str">
@@ -5766,10 +6038,10 @@
       <c r="B77" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="11" t="s">
         <v>440</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -5782,13 +6054,13 @@
       <c r="H77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K77" s="23" t="s">
+      <c r="K77" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L77" s="23" t="s">
+      <c r="L77" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M77" s="23" t="s">
+      <c r="M77" s="21" t="s">
         <v>56</v>
       </c>
       <c r="Q77" s="4" t="str">
@@ -5819,13 +6091,13 @@
       <c r="H78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K78" s="23" t="s">
+      <c r="K78" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="L78" s="23" t="s">
+      <c r="L78" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M78" s="23" t="s">
+      <c r="M78" s="21" t="s">
         <v>393</v>
       </c>
       <c r="P78" s="4">
@@ -5999,7 +6271,7 @@
       <c r="B85" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="23" t="s">
         <v>258</v>
       </c>
       <c r="E85" s="5" t="s">
@@ -6186,7 +6458,7 @@
       <c r="B92" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -6211,7 +6483,7 @@
       <c r="B93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -6461,7 +6733,7 @@
       <c r="B103" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -6511,7 +6783,7 @@
       <c r="B105" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="23" t="s">
         <v>332</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -6661,10 +6933,10 @@
       <c r="B111" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="16" t="s">
         <v>513</v>
       </c>
       <c r="F111" s="4" t="s">
@@ -6677,10 +6949,10 @@
       <c r="H111" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L111" s="23" t="s">
+      <c r="L111" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M111" s="23" t="s">
+      <c r="M111" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6691,10 +6963,10 @@
       <c r="B112" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="17" t="s">
         <v>514</v>
       </c>
       <c r="F112" s="4" t="s">
@@ -6704,13 +6976,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K112" s="23" t="s">
+      <c r="K112" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="L112" s="23" t="s">
+      <c r="L112" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M112" s="23" t="s">
+      <c r="M112" s="21" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6721,7 +6993,7 @@
       <c r="B113" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -6787,7 +7059,7 @@
       <c r="B116" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="23" t="s">
         <v>215</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -6815,7 +7087,8 @@
       <c r="B117" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="29"/>
+      <c r="D117" s="23" t="s">
         <v>197</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -6862,7 +7135,7 @@
       <c r="B119" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="23" t="s">
         <v>253</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -6931,7 +7204,8 @@
       <c r="B122" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="29"/>
+      <c r="D122" s="26" t="s">
         <v>426</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -6956,7 +7230,7 @@
       <c r="B123" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="26" t="s">
         <v>293</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -7031,10 +7305,11 @@
       <c r="B126" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="C126" s="29"/>
+      <c r="D126" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="16" t="s">
         <v>506</v>
       </c>
       <c r="G126" s="4">
@@ -7118,7 +7393,7 @@
       <c r="B130" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="22" t="s">
         <v>327</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -7317,17 +7592,83 @@
       </c>
     </row>
     <row r="140" spans="2:25">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="19" t="s">
         <v>519</v>
       </c>
       <c r="Y140" t="s">
         <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="2:25">
+      <c r="D141" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="E141" s="31"/>
+    </row>
+    <row r="142" spans="2:25">
+      <c r="D142" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E142" s="31"/>
+    </row>
+    <row r="143" spans="2:25">
+      <c r="D143" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="E143" s="31"/>
+    </row>
+    <row r="144" spans="2:25">
+      <c r="D144" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="E144" s="31"/>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="E147" s="31"/>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E149" s="31"/>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -7339,6 +7680,2070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62964904-1AE8-D84E-A3AE-B641DC9BEF67}">
+  <dimension ref="A1:N141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H5" t="s">
+        <v>528</v>
+      </c>
+      <c r="I5" t="s">
+        <v>528</v>
+      </c>
+      <c r="J5" t="s">
+        <v>528</v>
+      </c>
+      <c r="K5" t="s">
+        <v>528</v>
+      </c>
+      <c r="L5" t="s">
+        <v>528</v>
+      </c>
+      <c r="M5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="I6" t="s">
+        <v>528</v>
+      </c>
+      <c r="J6" t="s">
+        <v>528</v>
+      </c>
+      <c r="K6" t="s">
+        <v>528</v>
+      </c>
+      <c r="L6" t="s">
+        <v>528</v>
+      </c>
+      <c r="M6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" t="s">
+        <v>528</v>
+      </c>
+      <c r="J7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K9" t="s">
+        <v>528</v>
+      </c>
+      <c r="L9" t="s">
+        <v>528</v>
+      </c>
+      <c r="M9" t="s">
+        <v>528</v>
+      </c>
+      <c r="N9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G10" t="s">
+        <v>528</v>
+      </c>
+      <c r="H10" t="s">
+        <v>528</v>
+      </c>
+      <c r="I10" t="s">
+        <v>528</v>
+      </c>
+      <c r="J10" t="s">
+        <v>528</v>
+      </c>
+      <c r="K10" t="s">
+        <v>528</v>
+      </c>
+      <c r="L10" t="s">
+        <v>528</v>
+      </c>
+      <c r="M10" t="s">
+        <v>528</v>
+      </c>
+      <c r="N10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>528</v>
+      </c>
+      <c r="I11" t="s">
+        <v>528</v>
+      </c>
+      <c r="J11" t="s">
+        <v>528</v>
+      </c>
+      <c r="K11" t="s">
+        <v>528</v>
+      </c>
+      <c r="L11" t="s">
+        <v>528</v>
+      </c>
+      <c r="M11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" t="s">
+        <v>528</v>
+      </c>
+      <c r="H12" t="s">
+        <v>528</v>
+      </c>
+      <c r="I12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J12" t="s">
+        <v>528</v>
+      </c>
+      <c r="K12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>528</v>
+      </c>
+      <c r="H13" t="s">
+        <v>528</v>
+      </c>
+      <c r="I13" t="s">
+        <v>528</v>
+      </c>
+      <c r="J13" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" t="s">
+        <v>528</v>
+      </c>
+      <c r="L13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F14" t="s">
+        <v>528</v>
+      </c>
+      <c r="G14" t="s">
+        <v>528</v>
+      </c>
+      <c r="H14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G15" t="s">
+        <v>528</v>
+      </c>
+      <c r="H15" t="s">
+        <v>528</v>
+      </c>
+      <c r="I15" t="s">
+        <v>528</v>
+      </c>
+      <c r="J15" t="s">
+        <v>528</v>
+      </c>
+      <c r="K15" t="s">
+        <v>528</v>
+      </c>
+      <c r="L15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>528</v>
+      </c>
+      <c r="G16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H16" t="s">
+        <v>528</v>
+      </c>
+      <c r="I16" t="s">
+        <v>528</v>
+      </c>
+      <c r="J16" t="s">
+        <v>528</v>
+      </c>
+      <c r="K16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>528</v>
+      </c>
+      <c r="F17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" t="s">
+        <v>528</v>
+      </c>
+      <c r="H17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" t="s">
+        <v>528</v>
+      </c>
+      <c r="F19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G19" t="s">
+        <v>528</v>
+      </c>
+      <c r="H19" t="s">
+        <v>528</v>
+      </c>
+      <c r="I19" t="s">
+        <v>528</v>
+      </c>
+      <c r="J19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L19" t="s">
+        <v>528</v>
+      </c>
+      <c r="M19" t="s">
+        <v>528</v>
+      </c>
+      <c r="N19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" t="s">
+        <v>528</v>
+      </c>
+      <c r="F20" t="s">
+        <v>528</v>
+      </c>
+      <c r="G20" t="s">
+        <v>528</v>
+      </c>
+      <c r="H20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" t="s">
+        <v>528</v>
+      </c>
+      <c r="F22" t="s">
+        <v>528</v>
+      </c>
+      <c r="G22" t="s">
+        <v>528</v>
+      </c>
+      <c r="H22" t="s">
+        <v>528</v>
+      </c>
+      <c r="I22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" t="s">
+        <v>528</v>
+      </c>
+      <c r="I23" t="s">
+        <v>528</v>
+      </c>
+      <c r="J23" t="s">
+        <v>528</v>
+      </c>
+      <c r="K23" t="s">
+        <v>528</v>
+      </c>
+      <c r="L23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F24" t="s">
+        <v>528</v>
+      </c>
+      <c r="G24" t="s">
+        <v>528</v>
+      </c>
+      <c r="H24" t="s">
+        <v>528</v>
+      </c>
+      <c r="I24" t="s">
+        <v>528</v>
+      </c>
+      <c r="J24" t="s">
+        <v>528</v>
+      </c>
+      <c r="K24" t="s">
+        <v>528</v>
+      </c>
+      <c r="L24" t="s">
+        <v>528</v>
+      </c>
+      <c r="M24" t="s">
+        <v>528</v>
+      </c>
+      <c r="N24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" t="s">
+        <v>528</v>
+      </c>
+      <c r="H25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="I26" t="s">
+        <v>528</v>
+      </c>
+      <c r="J26" t="s">
+        <v>528</v>
+      </c>
+      <c r="K26" t="s">
+        <v>528</v>
+      </c>
+      <c r="L26" t="s">
+        <v>528</v>
+      </c>
+      <c r="M26" t="s">
+        <v>528</v>
+      </c>
+      <c r="N26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="F27" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" t="s">
+        <v>528</v>
+      </c>
+      <c r="H27" t="s">
+        <v>528</v>
+      </c>
+      <c r="I27" t="s">
+        <v>528</v>
+      </c>
+      <c r="J27" t="s">
+        <v>528</v>
+      </c>
+      <c r="K27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" t="s">
+        <v>528</v>
+      </c>
+      <c r="F30" t="s">
+        <v>528</v>
+      </c>
+      <c r="G30" t="s">
+        <v>528</v>
+      </c>
+      <c r="H30" t="s">
+        <v>528</v>
+      </c>
+      <c r="I30" t="s">
+        <v>528</v>
+      </c>
+      <c r="J30" t="s">
+        <v>528</v>
+      </c>
+      <c r="K30" t="s">
+        <v>528</v>
+      </c>
+      <c r="L30" t="s">
+        <v>528</v>
+      </c>
+      <c r="M30" t="s">
+        <v>528</v>
+      </c>
+      <c r="N30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E31" t="s">
+        <v>528</v>
+      </c>
+      <c r="F31" t="s">
+        <v>528</v>
+      </c>
+      <c r="G31" t="s">
+        <v>528</v>
+      </c>
+      <c r="H31" t="s">
+        <v>528</v>
+      </c>
+      <c r="I31" t="s">
+        <v>528</v>
+      </c>
+      <c r="J31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>528</v>
+      </c>
+      <c r="G33" t="s">
+        <v>528</v>
+      </c>
+      <c r="H33" t="s">
+        <v>528</v>
+      </c>
+      <c r="I33" t="s">
+        <v>528</v>
+      </c>
+      <c r="J33" t="s">
+        <v>528</v>
+      </c>
+      <c r="K33" t="s">
+        <v>528</v>
+      </c>
+      <c r="L33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="s">
+        <v>528</v>
+      </c>
+      <c r="H34" t="s">
+        <v>528</v>
+      </c>
+      <c r="I34" t="s">
+        <v>528</v>
+      </c>
+      <c r="J34" t="s">
+        <v>528</v>
+      </c>
+      <c r="K34" t="s">
+        <v>528</v>
+      </c>
+      <c r="L34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>528</v>
+      </c>
+      <c r="E35" t="s">
+        <v>528</v>
+      </c>
+      <c r="F35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" t="s">
+        <v>528</v>
+      </c>
+      <c r="F39" t="s">
+        <v>528</v>
+      </c>
+      <c r="G39" t="s">
+        <v>528</v>
+      </c>
+      <c r="H39" t="s">
+        <v>528</v>
+      </c>
+      <c r="I39" t="s">
+        <v>528</v>
+      </c>
+      <c r="J39" t="s">
+        <v>528</v>
+      </c>
+      <c r="K39" t="s">
+        <v>528</v>
+      </c>
+      <c r="L39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" t="s">
+        <v>528</v>
+      </c>
+      <c r="G40" t="s">
+        <v>528</v>
+      </c>
+      <c r="H40" t="s">
+        <v>528</v>
+      </c>
+      <c r="I40" t="s">
+        <v>528</v>
+      </c>
+      <c r="J40" t="s">
+        <v>528</v>
+      </c>
+      <c r="K40" t="s">
+        <v>528</v>
+      </c>
+      <c r="L40" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="E42" t="s">
+        <v>528</v>
+      </c>
+      <c r="F42" t="s">
+        <v>528</v>
+      </c>
+      <c r="G42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="J43" t="s">
+        <v>528</v>
+      </c>
+      <c r="K43" t="s">
+        <v>528</v>
+      </c>
+      <c r="L43" t="s">
+        <v>528</v>
+      </c>
+      <c r="M43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>528</v>
+      </c>
+      <c r="H44" t="s">
+        <v>528</v>
+      </c>
+      <c r="I44" t="s">
+        <v>528</v>
+      </c>
+      <c r="J44" t="s">
+        <v>528</v>
+      </c>
+      <c r="K44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>528</v>
+      </c>
+      <c r="F45" t="s">
+        <v>528</v>
+      </c>
+      <c r="G45" t="s">
+        <v>528</v>
+      </c>
+      <c r="H45" t="s">
+        <v>528</v>
+      </c>
+      <c r="I45" t="s">
+        <v>528</v>
+      </c>
+      <c r="J45" t="s">
+        <v>528</v>
+      </c>
+      <c r="K45" t="s">
+        <v>528</v>
+      </c>
+      <c r="L45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>528</v>
+      </c>
+      <c r="G47" t="s">
+        <v>528</v>
+      </c>
+      <c r="H47" t="s">
+        <v>528</v>
+      </c>
+      <c r="I47" t="s">
+        <v>528</v>
+      </c>
+      <c r="J47" t="s">
+        <v>528</v>
+      </c>
+      <c r="K47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>528</v>
+      </c>
+      <c r="F48" t="s">
+        <v>528</v>
+      </c>
+      <c r="G48" t="s">
+        <v>528</v>
+      </c>
+      <c r="H48" t="s">
+        <v>528</v>
+      </c>
+      <c r="I48" t="s">
+        <v>528</v>
+      </c>
+      <c r="J48" t="s">
+        <v>528</v>
+      </c>
+      <c r="K48" t="s">
+        <v>528</v>
+      </c>
+      <c r="L48" t="s">
+        <v>528</v>
+      </c>
+      <c r="M48" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>528</v>
+      </c>
+      <c r="F49" t="s">
+        <v>528</v>
+      </c>
+      <c r="G49" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="H50" t="s">
+        <v>528</v>
+      </c>
+      <c r="I50" t="s">
+        <v>528</v>
+      </c>
+      <c r="J50" t="s">
+        <v>528</v>
+      </c>
+      <c r="K50" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="E52" t="s">
+        <v>528</v>
+      </c>
+      <c r="F52" t="s">
+        <v>528</v>
+      </c>
+      <c r="G52" t="s">
+        <v>528</v>
+      </c>
+      <c r="H52" t="s">
+        <v>528</v>
+      </c>
+      <c r="I52" t="s">
+        <v>528</v>
+      </c>
+      <c r="J52" t="s">
+        <v>528</v>
+      </c>
+      <c r="K52" t="s">
+        <v>528</v>
+      </c>
+      <c r="L52" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" t="s">
+        <v>528</v>
+      </c>
+      <c r="K53" t="s">
+        <v>528</v>
+      </c>
+      <c r="L53" t="s">
+        <v>528</v>
+      </c>
+      <c r="M53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="H54" t="s">
+        <v>528</v>
+      </c>
+      <c r="I54" t="s">
+        <v>528</v>
+      </c>
+      <c r="J54" t="s">
+        <v>528</v>
+      </c>
+      <c r="K54" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>528</v>
+      </c>
+      <c r="F55" t="s">
+        <v>528</v>
+      </c>
+      <c r="G55" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s">
+        <v>528</v>
+      </c>
+      <c r="F58" t="s">
+        <v>528</v>
+      </c>
+      <c r="G58" t="s">
+        <v>528</v>
+      </c>
+      <c r="H58" t="s">
+        <v>528</v>
+      </c>
+      <c r="I58" t="s">
+        <v>528</v>
+      </c>
+      <c r="J58" t="s">
+        <v>528</v>
+      </c>
+      <c r="K58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E59" t="s">
+        <v>528</v>
+      </c>
+      <c r="F59" t="s">
+        <v>528</v>
+      </c>
+      <c r="G59" t="s">
+        <v>528</v>
+      </c>
+      <c r="H59" t="s">
+        <v>528</v>
+      </c>
+      <c r="I59" t="s">
+        <v>528</v>
+      </c>
+      <c r="J59" t="s">
+        <v>528</v>
+      </c>
+      <c r="K59" t="s">
+        <v>528</v>
+      </c>
+      <c r="L59" t="s">
+        <v>528</v>
+      </c>
+      <c r="M59" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" t="s">
+        <v>528</v>
+      </c>
+      <c r="G60" t="s">
+        <v>528</v>
+      </c>
+      <c r="H60" t="s">
+        <v>528</v>
+      </c>
+      <c r="I60" t="s">
+        <v>528</v>
+      </c>
+      <c r="J60" t="s">
+        <v>528</v>
+      </c>
+      <c r="K60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>528</v>
+      </c>
+      <c r="D61" t="s">
+        <v>528</v>
+      </c>
+      <c r="E61" t="s">
+        <v>528</v>
+      </c>
+      <c r="F61" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" t="s">
+        <v>528</v>
+      </c>
+      <c r="H61" t="s">
+        <v>528</v>
+      </c>
+      <c r="I61" t="s">
+        <v>528</v>
+      </c>
+      <c r="J61" t="s">
+        <v>528</v>
+      </c>
+      <c r="K61" t="s">
+        <v>528</v>
+      </c>
+      <c r="L61" t="s">
+        <v>528</v>
+      </c>
+      <c r="M61" t="s">
+        <v>528</v>
+      </c>
+      <c r="N61" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="F62" t="s">
+        <v>528</v>
+      </c>
+      <c r="G62" t="s">
+        <v>528</v>
+      </c>
+      <c r="H62" t="s">
+        <v>528</v>
+      </c>
+      <c r="I62" t="s">
+        <v>528</v>
+      </c>
+      <c r="J62" t="s">
+        <v>528</v>
+      </c>
+      <c r="K62" t="s">
+        <v>528</v>
+      </c>
+      <c r="L62" t="s">
+        <v>528</v>
+      </c>
+      <c r="M62" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E64" t="s">
+        <v>528</v>
+      </c>
+      <c r="F64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="F68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G68" t="s">
+        <v>528</v>
+      </c>
+      <c r="H68" t="s">
+        <v>528</v>
+      </c>
+      <c r="I68" t="s">
+        <v>528</v>
+      </c>
+      <c r="J68" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F69" t="s">
+        <v>528</v>
+      </c>
+      <c r="G69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s">
+        <v>528</v>
+      </c>
+      <c r="H70" t="s">
+        <v>528</v>
+      </c>
+      <c r="I70" t="s">
+        <v>528</v>
+      </c>
+      <c r="J70" t="s">
+        <v>528</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>528</v>
+      </c>
+      <c r="M70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73" t="s">
+        <v>528</v>
+      </c>
+      <c r="G73" t="s">
+        <v>528</v>
+      </c>
+      <c r="H73" t="s">
+        <v>528</v>
+      </c>
+      <c r="I73" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="J73" t="s">
+        <v>528</v>
+      </c>
+      <c r="K73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" t="s">
+        <v>528</v>
+      </c>
+      <c r="H74" t="s">
+        <v>528</v>
+      </c>
+      <c r="I74" t="s">
+        <v>528</v>
+      </c>
+      <c r="J74" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G75" t="s">
+        <v>528</v>
+      </c>
+      <c r="H75" t="s">
+        <v>528</v>
+      </c>
+      <c r="I75" t="s">
+        <v>528</v>
+      </c>
+      <c r="J75" t="s">
+        <v>528</v>
+      </c>
+      <c r="K75" t="s">
+        <v>528</v>
+      </c>
+      <c r="L75" t="s">
+        <v>528</v>
+      </c>
+      <c r="M75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>528</v>
+      </c>
+      <c r="D76" t="s">
+        <v>528</v>
+      </c>
+      <c r="E76" t="s">
+        <v>528</v>
+      </c>
+      <c r="F76" t="s">
+        <v>528</v>
+      </c>
+      <c r="G76" t="s">
+        <v>528</v>
+      </c>
+      <c r="H76" t="s">
+        <v>528</v>
+      </c>
+      <c r="I76" t="s">
+        <v>528</v>
+      </c>
+      <c r="J76" t="s">
+        <v>528</v>
+      </c>
+      <c r="K76" t="s">
+        <v>528</v>
+      </c>
+      <c r="L76" t="s">
+        <v>528</v>
+      </c>
+      <c r="M76" t="s">
+        <v>528</v>
+      </c>
+      <c r="N76" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
+        <v>528</v>
+      </c>
+      <c r="G77" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" s="31"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="B79" s="31"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="B80" s="31"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="B81" s="31"/>
+      <c r="C81" t="s">
+        <v>528</v>
+      </c>
+      <c r="D81" t="s">
+        <v>528</v>
+      </c>
+      <c r="E81" t="s">
+        <v>528</v>
+      </c>
+      <c r="F81" t="s">
+        <v>528</v>
+      </c>
+      <c r="G81" t="s">
+        <v>528</v>
+      </c>
+      <c r="H81" t="s">
+        <v>528</v>
+      </c>
+      <c r="I81" t="s">
+        <v>528</v>
+      </c>
+      <c r="J81" t="s">
+        <v>528</v>
+      </c>
+      <c r="K81" t="s">
+        <v>528</v>
+      </c>
+      <c r="L81" t="s">
+        <v>528</v>
+      </c>
+      <c r="M81" t="s">
+        <v>528</v>
+      </c>
+      <c r="N81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="E82" t="s">
+        <v>528</v>
+      </c>
+      <c r="F82" t="s">
+        <v>528</v>
+      </c>
+      <c r="G82" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="E83" t="s">
+        <v>528</v>
+      </c>
+      <c r="F83" t="s">
+        <v>528</v>
+      </c>
+      <c r="G83" t="s">
+        <v>528</v>
+      </c>
+      <c r="H83" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="E84" t="s">
+        <v>528</v>
+      </c>
+      <c r="F84" t="s">
+        <v>528</v>
+      </c>
+      <c r="G84" t="s">
+        <v>528</v>
+      </c>
+      <c r="H84" t="s">
+        <v>528</v>
+      </c>
+      <c r="I84" t="s">
+        <v>528</v>
+      </c>
+      <c r="J84" t="s">
+        <v>528</v>
+      </c>
+      <c r="K84" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="E85" t="s">
+        <v>528</v>
+      </c>
+      <c r="F85" t="s">
+        <v>528</v>
+      </c>
+      <c r="G85" t="s">
+        <v>528</v>
+      </c>
+      <c r="H85" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="36"/>
+      <c r="B86" s="31"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="34"/>
+      <c r="B87" s="31"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="34"/>
+      <c r="B88" s="31"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="34"/>
+      <c r="B89" s="31"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="34"/>
+      <c r="B90" s="31"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="30"/>
+      <c r="B91" s="31"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="34"/>
+      <c r="B92" s="31"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="36"/>
+      <c r="B93" s="31"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="36"/>
+      <c r="B94" s="31"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="34"/>
+      <c r="B95" s="31"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="34"/>
+      <c r="B96" s="31"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="34"/>
+      <c r="B97" s="31"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="36"/>
+      <c r="B98" s="31"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="34"/>
+      <c r="B99" s="31"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="34"/>
+      <c r="B100" s="31"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="34"/>
+      <c r="B101" s="31"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="34"/>
+      <c r="B102" s="31"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="34"/>
+      <c r="B103" s="31"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="34"/>
+      <c r="B104" s="31"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="34"/>
+      <c r="B105" s="31"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="34"/>
+      <c r="B106" s="31"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="34"/>
+      <c r="B107" s="31"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="34"/>
+      <c r="B108" s="31"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="34"/>
+      <c r="B109" s="31"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="34"/>
+      <c r="B110" s="31"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="41"/>
+      <c r="B111" s="31"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="34"/>
+      <c r="B112" s="31"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="34"/>
+      <c r="B113" s="31"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="34"/>
+      <c r="B114" s="31"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="34"/>
+      <c r="B115" s="31"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="34"/>
+      <c r="B116" s="31"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="34"/>
+      <c r="B117" s="31"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="34"/>
+      <c r="B118" s="31"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="34"/>
+      <c r="B119" s="31"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="34"/>
+      <c r="B120" s="31"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="34"/>
+      <c r="B121" s="31"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="34"/>
+      <c r="B122" s="31"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="34"/>
+      <c r="B123" s="31"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="34"/>
+      <c r="B124" s="31"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="34"/>
+      <c r="B125" s="31"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="34"/>
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="34"/>
+      <c r="B127" s="31"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="34"/>
+      <c r="B128" s="31"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="34"/>
+      <c r="B129" s="31"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="34"/>
+      <c r="B130" s="31"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="34"/>
+      <c r="B131" s="31"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="34"/>
+      <c r="B132" s="31"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="34"/>
+      <c r="B133" s="31"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="34"/>
+      <c r="B134" s="31"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="34"/>
+      <c r="B135" s="31"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="34"/>
+      <c r="B136" s="31"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="34"/>
+      <c r="B137" s="31"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="34"/>
+      <c r="B138" s="31"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="34"/>
+      <c r="B139" s="31"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="34"/>
+      <c r="B140" s="31"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="34"/>
+      <c r="B141" s="31"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B141">
+    <sortCondition ref="A2:A141"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8825AA-A5AA-EB48-96DA-617D57988EAB}">
   <dimension ref="A1:C57"/>
   <sheetViews>
@@ -7365,10 +9770,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="2">
@@ -7377,10 +9782,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="2">
@@ -7389,10 +9794,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="2">
@@ -7401,10 +9806,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C5" s="2">
@@ -7413,10 +9818,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>483</v>
       </c>
       <c r="C6" s="2">
@@ -7425,10 +9830,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C7" s="2">
@@ -7437,10 +9842,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C8" s="2">
@@ -7449,10 +9854,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>168</v>
       </c>
       <c r="C9" s="2">
@@ -7461,10 +9866,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>417</v>
       </c>
       <c r="C10" s="2">
@@ -7473,10 +9878,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>484</v>
       </c>
       <c r="C11" s="2">
@@ -7485,10 +9890,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>485</v>
       </c>
       <c r="C12" s="2">
@@ -7497,10 +9902,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>486</v>
       </c>
       <c r="C13" s="2">
@@ -7509,10 +9914,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>487</v>
       </c>
       <c r="C14" s="2">
@@ -7521,10 +9926,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>308</v>
       </c>
       <c r="C15" s="2">
@@ -7533,10 +9938,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C16" s="2">
@@ -7545,10 +9950,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="2">
@@ -7557,10 +9962,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2">
@@ -7569,10 +9974,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C19" s="2">
@@ -7581,10 +9986,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C20" s="2">
@@ -7593,10 +9998,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>383</v>
       </c>
       <c r="C21" s="2">
@@ -7605,10 +10010,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="2">
@@ -7617,10 +10022,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C23" s="2">
@@ -7629,10 +10034,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="2">
@@ -7641,10 +10046,10 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>488</v>
       </c>
       <c r="C25" s="2">
@@ -7653,10 +10058,10 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>489</v>
       </c>
       <c r="C26" s="2">
@@ -7665,10 +10070,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>490</v>
       </c>
       <c r="C27" s="2">
@@ -7677,10 +10082,10 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>491</v>
       </c>
       <c r="C28" s="2">
@@ -7689,10 +10094,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>492</v>
       </c>
       <c r="C29" s="2">
@@ -7701,10 +10106,10 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C30" s="2">
@@ -7713,10 +10118,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>239</v>
       </c>
       <c r="C31" s="2">
@@ -7725,10 +10130,10 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>416</v>
       </c>
       <c r="C32" s="2">
@@ -7737,10 +10142,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C33" s="2">
@@ -7749,10 +10154,10 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>360</v>
       </c>
       <c r="C34" s="2">
@@ -7761,10 +10166,10 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>385</v>
       </c>
       <c r="C35" s="2">
@@ -7773,10 +10178,10 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>319</v>
       </c>
       <c r="C36" s="2">
@@ -7785,10 +10190,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
@@ -7797,10 +10202,10 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>312</v>
       </c>
       <c r="C38" s="2">
@@ -7809,10 +10214,10 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C39" s="2">
@@ -7821,10 +10226,10 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>282</v>
       </c>
       <c r="C40" s="2">
@@ -7833,10 +10238,10 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>299</v>
       </c>
       <c r="C41" s="2">
@@ -7845,10 +10250,10 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>304</v>
       </c>
       <c r="C42" s="2">
@@ -7857,10 +10262,10 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>279</v>
       </c>
       <c r="C43" s="2">
@@ -7869,10 +10274,10 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C44" s="2">
@@ -7881,10 +10286,10 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>373</v>
       </c>
       <c r="C45" s="2">
@@ -7893,10 +10298,10 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>376</v>
       </c>
       <c r="C46" s="2">
@@ -7905,10 +10310,10 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>418</v>
       </c>
       <c r="C47" s="2">
@@ -7917,10 +10322,10 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>493</v>
       </c>
       <c r="C48" s="2">
@@ -7929,10 +10334,10 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>494</v>
       </c>
       <c r="C49" s="2">
@@ -7941,10 +10346,10 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>495</v>
       </c>
       <c r="C50" s="2">
@@ -7953,10 +10358,10 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>456</v>
       </c>
       <c r="C51" s="2">
@@ -7965,10 +10370,10 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>496</v>
       </c>
       <c r="C52" s="2">
@@ -7977,10 +10382,10 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>497</v>
       </c>
       <c r="C53" s="2">
@@ -7989,10 +10394,10 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>498</v>
       </c>
       <c r="C54" s="2">
@@ -8001,10 +10406,10 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>499</v>
       </c>
       <c r="C55" s="2">
@@ -8026,12 +10431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EDFA09-D8E2-6945-85F6-1E364B2A7A97}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
